--- a/bip8013_data.xlsx
+++ b/bip8013_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2506\Desktop\TESIS\DOCUMENTOS TESIS\Capitulos\R\Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Esteban\TESIS\Tesis\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD8152D-0916-46B5-BCC2-1645016D7CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,18 @@
     <sheet name="Optimal" sheetId="9" r:id="rId5"/>
     <sheet name="interdemand inter." sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -359,7 +371,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -425,6 +437,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -434,11 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,7 +468,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -493,7 +505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -519,7 +530,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1089,7 +1100,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547302112"/>
@@ -1134,7 +1145,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547309328"/>
@@ -1151,7 +1162,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1177,7 +1187,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1207,7 +1217,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1221,7 +1231,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1233,7 +1243,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1259,7 +1268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2668,7 +2677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="641603752"/>
@@ -2727,7 +2736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="641603424"/>
@@ -2744,7 +2753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2770,7 +2778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2800,7 +2808,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2814,7 +2822,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2826,7 +2834,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2852,7 +2859,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4258,7 +4265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677836616"/>
@@ -4317,7 +4324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="677839240"/>
@@ -4334,7 +4341,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4360,7 +4366,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4390,7 +4396,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4404,7 +4410,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4416,7 +4422,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4442,7 +4447,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5848,7 +5853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="630319192"/>
@@ -5907,7 +5912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="630314928"/>
@@ -5924,7 +5929,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5950,7 +5954,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5980,7 +5984,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5994,7 +5998,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6006,7 +6010,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6032,7 +6035,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7438,7 +7441,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="448300120"/>
@@ -7497,7 +7500,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="448307336"/>
@@ -7514,7 +7517,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7540,7 +7542,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7570,7 +7572,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10313,7 +10315,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10348,7 +10356,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10385,7 +10399,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10422,7 +10442,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10459,7 +10485,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10480,7 +10512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10555,6 +10587,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10590,6 +10639,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10765,22 +10831,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E33" sqref="E32:E33"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="3" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10788,7 +10854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -10802,7 +10868,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -10834,7 +10900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10872,7 +10938,7 @@
         <v>318.20479999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -10910,7 +10976,7 @@
         <v>758.51610000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -10948,7 +11014,7 @@
         <v>1277.1859999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -10994,29 +11060,29 @@
         <v>518.66989999999987</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="R8" s="8" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="R8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -11056,7 +11122,7 @@
         <v>1.9161422063818451E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -11096,7 +11162,7 @@
         <v>6.9105048129257493E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -11136,7 +11202,7 @@
         <v>5.3868426368602689E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -11176,29 +11242,29 @@
       </c>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="R13" s="9" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="R13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -11238,7 +11304,7 @@
         <v>-5.057638196473418E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -11278,7 +11344,7 @@
         <v>2.0711491819355088E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -11318,7 +11384,7 @@
         <v>1.6439993824779938E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -11358,7 +11424,7 @@
       </c>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -11374,7 +11440,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -11387,7 +11453,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -11419,7 +11485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -11454,7 +11520,7 @@
         <v>0.16236999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -11492,7 +11558,7 @@
         <v>333.1003</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -11530,7 +11596,7 @@
         <v>756.7885</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -11572,20 +11638,20 @@
         <v>1322.5387000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
       <c r="R25" t="s">
         <v>58</v>
       </c>
@@ -11606,7 +11672,7 @@
         <v>565.75020000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -11629,15 +11695,15 @@
         <f>(L23-O23)/O23</f>
         <v>4.9269311128286093E-2</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -11680,7 +11746,7 @@
         <v>2.2142382773296616E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -11715,15 +11781,15 @@
         <v>1.7219967691875039E-2</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" ref="T28:V28" si="0">($S$24-U6)/U6</f>
+        <f>($S$24-U6)/U6</f>
         <v>1.7868087088026674E-2</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="0"/>
+        <f>($S$24-V6)/V6</f>
         <v>1.7922918040128927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -11766,20 +11832,20 @@
         <v>3.7317075836198567E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
       <c r="R30" s="4" t="s">
         <v>102</v>
       </c>
@@ -11792,15 +11858,15 @@
         <v>3.23215827382035E-2</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="T30:V30" si="1">($T$24-U6)/U6</f>
+        <f>($T$24-U6)/U6</f>
         <v>3.2979324094143198E-2</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="1"/>
+        <f>($T$24-V6)/V6</f>
         <v>3.3034969064803452E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -11835,15 +11901,15 @@
         <v>3.7113287821255746E-2</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" ref="T31:V31" si="2">($U$24-N6)/N6</f>
+        <f t="shared" ref="U31:V31" si="0">($U$24-N6)/N6</f>
         <v>3.7496108306995637E-2</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.7517561136419887E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -11886,7 +11952,7 @@
         <v>3.3234626749745276E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -11917,19 +11983,19 @@
         <v>7.7859761445562108E-3</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" ref="T33:V33" si="3">($V$24-M6)/M6</f>
+        <f t="shared" ref="T33:V33" si="1">($V$24-M6)/M6</f>
         <v>3.9397065174379853E-2</v>
       </c>
       <c r="U33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.9780728650722526E-2</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.9802228720391956E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -11960,34 +12026,34 @@
         <v>1.6041071288502975E-2</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" ref="T34:V34" si="4">($V$24-T6)/T6</f>
+        <f t="shared" ref="T34:V34" si="2">($V$24-T6)/T6</f>
         <v>3.4794767667400639E-2</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.5454084807510715E-2</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.5509863089636232E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -12002,19 +12068,19 @@
         <v>-9.5288746013062944E-3</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" ref="T36:V36" si="5">($S$23-M5)/M5</f>
+        <f t="shared" ref="T36:V36" si="3">($S$23-M5)/M5</f>
         <v>-6.6420607665871653E-3</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-5.7328376799518693E-3</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-5.6827512237483495E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -12033,15 +12099,15 @@
         <v>-1.06057582085E-2</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" ref="T37:V37" si="6">($S$23-U5)/U5</f>
+        <f t="shared" ref="U37:V37" si="4">($S$23-U5)/U5</f>
         <v>-8.7195415801523055E-3</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-8.5565751340018325E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -12053,19 +12119,19 @@
         <v>-6.1416322483173243E-3</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" ref="T38:V38" si="7">($T$23-M5)/M5</f>
+        <f t="shared" ref="T38:V38" si="5">($T$23-M5)/M5</f>
         <v>-3.244946002545102E-3</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.332613527994912E-3</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.2823557846519556E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -12077,19 +12143,19 @@
         <v>-1.0892036596175415E-4</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" ref="T39:V39" si="8">($T$23-T5)/T5</f>
+        <f t="shared" ref="T39:V39" si="6">($T$23-T5)/T5</f>
         <v>-7.2221986138166373E-3</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-5.3295314462390581E-3</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-5.1660076826319104E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -12105,15 +12171,15 @@
         <v>-3.4619714149924877E-3</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" ref="T40:V40" si="9">($U$23-N5)/N5</f>
+        <f t="shared" ref="U40:V40" si="7">($U$23-N5)/N5</f>
         <v>-2.5498375843626712E-3</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.4995907837357155E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -12125,19 +12191,19 @@
         <v>-3.2662859135751225E-4</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" ref="T41:V41" si="10">($U$23-T5)/T5</f>
+        <f t="shared" ref="T41:V41" si="8">($U$23-T5)/T5</f>
         <v>-7.4383580513337662E-3</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-5.5461029778519451E-3</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-5.38261481859122E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -12149,19 +12215,19 @@
         <v>-3.2560621141065819E-3</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" ref="T42:V42" si="11">($V$23-M5)/M5</f>
+        <f t="shared" ref="T42:V42" si="9">($V$23-M5)/M5</f>
         <v>-3.5096562438995517E-4</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>5.6401571787263163E-4</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.1441937963606786E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R43" s="4" t="s">
         <v>106</v>
       </c>
@@ -12170,20 +12236,20 @@
         <v>2.7941651545463375E-3</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" ref="T43:V43" si="12">($V$23-T5)/T5</f>
+        <f t="shared" ref="T43:V43" si="10">($V$23-T5)/T5</f>
         <v>-4.3397657978933796E-3</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.441603457130191E-3</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.2776049183399695E-3</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="K25:O25"/>
@@ -12202,24 +12268,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12251,7 +12317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -12274,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -12297,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -12320,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -12343,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -12366,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -12389,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -12412,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -12435,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -12458,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -12481,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -12504,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -12527,7 +12593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -12559,7 +12625,7 @@
         <v>5479.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -12591,7 +12657,7 @@
         <v>-548.45000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -12623,7 +12689,7 @@
         <v>-493.60500000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -12655,7 +12721,7 @@
         <v>-444.24450000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -12687,7 +12753,7 @@
         <v>1120.17995</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -12719,7 +12785,7 @@
         <v>2489.161955</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -12751,7 +12817,7 @@
         <v>240.24575949999991</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -12783,7 +12849,7 @@
         <v>2215.2211835500002</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -12815,7 +12881,7 @@
         <v>1993.699065195</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -12847,7 +12913,7 @@
         <v>794.32915867549991</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -12879,7 +12945,7 @@
         <v>714.89624280794987</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -12911,7 +12977,7 @@
         <v>-1356.5933814728451</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -12943,7 +13009,7 @@
         <v>-1220.9340433255611</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -12975,7 +13041,7 @@
         <v>-98.840638993004632</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -13007,7 +13073,7 @@
         <v>-88.956575093704032</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -13051,7 +13117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -13098,7 +13164,7 @@
         <v>303.51330000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -13145,7 +13211,7 @@
         <v>756.32380000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -13192,7 +13258,7 @@
         <v>1271.9137000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -13243,7 +13309,7 @@
         <v>515.58990000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -13274,15 +13340,15 @@
       <c r="J34">
         <v>296.52482877562659</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="N34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -13330,7 +13396,7 @@
         <v>3.1768900673056551E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -13378,7 +13444,7 @@
         <v>3.898063209791021E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -13426,7 +13492,7 @@
         <v>2.0677503513007207E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>804.45010000000002</v>
       </c>
@@ -13456,7 +13522,7 @@
       </c>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <f>SUM(B13:B37)/15</f>
         <v>1867.2</v>
@@ -13473,15 +13539,15 @@
       <c r="F39">
         <v>755.99332939270596</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="N39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>804.45010000000002</v>
       </c>
@@ -13511,7 +13577,7 @@
         <v>3.8831251905599652E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>804.45010000000002</v>
       </c>
@@ -13541,7 +13607,7 @@
         <v>9.6572393993158941E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>804.45010000000002</v>
       </c>
@@ -13571,7 +13637,7 @@
         <v>5.0375249331021729E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N43" s="4" t="s">
         <v>52</v>
       </c>
@@ -13600,25 +13666,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13650,7 +13716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -13673,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -13696,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -13719,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -13742,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13765,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -13788,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -13811,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -13834,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -13857,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -13880,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -13903,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -13926,7 +13992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -13958,7 +14024,7 @@
         <v>5479.25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -13990,7 +14056,7 @@
         <v>-822.63750000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -14022,7 +14088,7 @@
         <v>-699.24187500000005</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -14054,7 +14120,7 @@
         <v>-594.35559375000003</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -14086,7 +14152,7 @@
         <v>1014.7977453125</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -14118,7 +14184,7 @@
         <v>2343.5780835156252</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -14150,7 +14216,7 @@
         <v>-7.9586290117188128</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -14182,7 +14248,7 @@
         <v>1992.235165340039</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -14214,7 +14280,7 @@
         <v>1693.3998905390331</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -14246,7 +14312,7 @@
         <v>439.38990695817819</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -14278,7 +14344,7 @@
         <v>373.48142091445152</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -14310,7 +14376,7 @@
         <v>-1682.5407922227159</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -14342,7 +14408,7 @@
         <v>-1430.1596733893091</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -14374,7 +14440,7 @@
         <v>-215.63572238091231</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -14406,7 +14472,7 @@
         <v>-183.29036402377551</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -14438,7 +14504,7 @@
         <v>-155.7968094202092</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -14482,7 +14548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -14529,7 +14595,7 @@
         <v>318.20479999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -14576,7 +14642,7 @@
         <v>758.51610000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -14623,7 +14689,7 @@
         <v>1277.1859999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -14674,7 +14740,7 @@
         <v>518.66989999999987</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -14705,15 +14771,15 @@
       <c r="J35">
         <v>-652.59150370875227</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -14761,7 +14827,7 @@
         <v>1.9161422063818451E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -14809,7 +14875,7 @@
         <v>6.9105048129257493E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>783.27279999999996</v>
       </c>
@@ -14839,7 +14905,7 @@
         <v>5.3868426368602689E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>783.27279999999996</v>
       </c>
@@ -14869,7 +14935,7 @@
       </c>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>783.27279999999996</v>
       </c>
@@ -14882,15 +14948,15 @@
       <c r="F40">
         <v>730.98243670120416</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>783.27279999999996</v>
       </c>
@@ -14920,7 +14986,7 @@
         <v>-5.057638196473418E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>783.27279999999996</v>
       </c>
@@ -14950,7 +15016,7 @@
         <v>2.0711491819355088E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M43" s="4" t="s">
         <v>51</v>
       </c>
@@ -14968,7 +15034,7 @@
         <v>1.6439993824779938E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M44" s="4" t="s">
         <v>52</v>
       </c>
@@ -14997,25 +15063,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15047,7 +15113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -15070,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -15093,7 +15159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -15116,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -15139,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -15162,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -15185,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -15208,7 +15274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -15231,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -15254,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -15277,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -15300,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -15323,7 +15389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -15355,7 +15421,7 @@
         <v>5477.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -15387,7 +15453,7 @@
         <v>-2741.25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -15419,7 +15485,7 @@
         <v>-1370.625</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -15451,7 +15517,7 @@
         <v>-685.3125</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -15483,7 +15549,7 @@
         <v>1177.34375</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -15515,7 +15581,7 @@
         <v>2069.671875</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -15547,7 +15613,7 @@
         <v>-965.1640625</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -15579,7 +15645,7 @@
         <v>1516.41796875</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -15611,7 +15677,7 @@
         <v>758.208984375</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -15643,7 +15709,7 @@
         <v>-620.8955078125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -15675,7 +15741,7 @@
         <v>-310.44775390625</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -15707,7 +15773,7 @@
         <v>-2155.223876953125</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -15739,7 +15805,7 @@
         <v>-1077.611938476563</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -15771,7 +15837,7 @@
         <v>461.19403076171881</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -15803,7 +15869,7 @@
         <v>230.5970153808594</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -15835,7 +15901,7 @@
         <v>115.2985076904297</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -15867,7 +15933,7 @@
         <v>-942.35074615478516</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -15899,7 +15965,7 @@
         <v>-471.17537307739258</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -15931,7 +15997,7 @@
         <v>-235.58768653869629</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -15975,7 +16041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -16022,7 +16088,7 @@
         <v>329.14150000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -16069,7 +16135,7 @@
         <v>754.19240000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -16116,7 +16182,7 @@
         <v>1313.6713</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -16167,7 +16233,7 @@
         <v>559.47889999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>816.21230000000003</v>
       </c>
@@ -16180,15 +16246,15 @@
       <c r="F38">
         <v>661.88229640603311</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>816.21230000000003</v>
       </c>
@@ -16218,7 +16284,7 @@
         <v>4.9269311128286093E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>816.21230000000003</v>
       </c>
@@ -16248,7 +16314,7 @@
         <v>3.3351569757214081E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>816.21230000000003</v>
       </c>
@@ -16278,7 +16344,7 @@
         <v>4.4820192083057193E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>816.21230000000003</v>
       </c>
@@ -16308,16 +16374,16 @@
       </c>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="9" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L44" s="4" t="s">
         <v>49</v>
       </c>
@@ -16335,7 +16401,7 @@
         <v>8.0683098901553396E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L45" s="4" t="s">
         <v>50</v>
       </c>
@@ -16353,7 +16419,7 @@
         <v>4.2165235290093091E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L46" s="4" t="s">
         <v>51</v>
       </c>
@@ -16371,7 +16437,7 @@
         <v>7.0805539806553432E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L47" s="4" t="s">
         <v>52</v>
       </c>
@@ -16400,25 +16466,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="L30" sqref="L30:P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16450,7 +16516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -16473,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -16496,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -16519,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -16542,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16565,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -16588,7 +16654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -16611,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -16634,7 +16700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -16657,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -16680,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -16703,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -16726,7 +16792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -16758,7 +16824,7 @@
         <v>5479.0863582265229</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -16790,7 +16856,7 @@
         <v>-1002.098077246603</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -16822,7 +16888,7 @@
         <v>-818.98634434783776</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -16854,7 +16920,7 @@
         <v>-669.33431712709989</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -16886,7 +16952,7 @@
         <v>972.97204138275083</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -16918,7 +16984,7 @@
         <v>2276.1824610961889</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -16950,7 +17016,7 @@
         <v>-139.7406150066036</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -16982,7 +17048,7 @@
         <v>1884.793957657686</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -17014,7 +17080,7 @@
         <v>1540.3886588349339</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -17046,7 +17112,7 @@
         <v>258.9159736144652</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -17078,7 +17144,7 @@
         <v>211.60468375151851</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -17110,7 +17176,7 @@
         <v>-1827.061491956252</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -17142,7 +17208,7 @@
         <v>-1493.205551603636</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -17174,7 +17240,7 @@
         <v>-220.35455793696181</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -17206,7 +17272,7 @@
         <v>-180.08953211549331</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -17238,7 +17304,7 @@
         <v>-147.1820682141522</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -17282,7 +17348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -17326,7 +17392,7 @@
         <v>0.16236999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -17373,7 +17439,7 @@
         <v>333.1003</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -17420,7 +17486,7 @@
         <v>756.7885</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -17467,7 +17533,7 @@
         <v>1322.5387000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -17518,7 +17584,7 @@
         <v>565.75020000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -17549,15 +17615,15 @@
       <c r="J36">
         <v>2516.7070889100542</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -17605,7 +17671,7 @@
         <v>-1.6983850831737504E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>770.82339999999999</v>
       </c>
@@ -17635,7 +17701,7 @@
         <v>-2.3900245792429992E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>770.82339999999999</v>
       </c>
@@ -17665,7 +17731,7 @@
         <v>-2.1972135862640347E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>770.82339999999999</v>
       </c>
@@ -17695,7 +17761,7 @@
       </c>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>770.82339999999999</v>
       </c>
@@ -17708,15 +17774,15 @@
       <c r="F41">
         <v>811.97969712959537</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>770.82339999999999</v>
       </c>
@@ -17746,7 +17812,7 @@
         <v>-6.2933038755213578E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L43" s="4" t="s">
         <v>50</v>
       </c>
@@ -17764,7 +17830,7 @@
         <v>-2.8949964223821349E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L44" s="4" t="s">
         <v>51</v>
       </c>
@@ -17782,7 +17848,7 @@
         <v>-3.1120980300308053E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L45" s="4" t="s">
         <v>52</v>
       </c>
@@ -17811,49 +17877,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="10">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C1" s="11">
         <v>0.1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11">
         <v>0.15</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11">
         <v>0.5</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>108</v>
       </c>
@@ -17900,7 +17966,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>44912</v>
       </c>
@@ -17936,7 +18002,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>44579</v>
       </c>
@@ -17972,7 +18038,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>44610</v>
       </c>
@@ -18009,7 +18075,7 @@
         <v>0.36100000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>44638</v>
       </c>
@@ -18053,7 +18119,7 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>44669</v>
       </c>
@@ -18090,7 +18156,7 @@
         <v>0.48241000000000006</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>44699</v>
       </c>
@@ -18127,7 +18193,7 @@
         <v>0.53416900000000012</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>44730</v>
       </c>
@@ -18164,7 +18230,7 @@
         <v>0.5807521000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>44760</v>
       </c>
@@ -18208,7 +18274,7 @@
         <v>0.62267689000000015</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>44791</v>
       </c>
@@ -18248,7 +18314,7 @@
         <v>0.66040920100000011</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>44822</v>
       </c>
@@ -18288,7 +18354,7 @@
         <v>0.69436828090000013</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>44852</v>
       </c>
@@ -18330,7 +18396,7 @@
         <v>0.72493145281000015</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>44883</v>
       </c>
@@ -18370,7 +18436,7 @@
         <v>0.75243830752900009</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>44913</v>
       </c>
@@ -18410,7 +18476,7 @@
       <c r="N15" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="8">
         <v>1</v>
       </c>
       <c r="V15">
@@ -18434,7 +18500,7 @@
         <v>0.7771944767761001</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>44580</v>
       </c>
@@ -18474,7 +18540,7 @@
       <c r="N16" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="8">
         <v>1</v>
       </c>
       <c r="V16">
@@ -18498,7 +18564,7 @@
         <v>0.79947502909849011</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>44611</v>
       </c>
@@ -18538,7 +18604,7 @@
       <c r="N17" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="8">
         <v>1</v>
       </c>
       <c r="V17">
@@ -18562,7 +18628,7 @@
         <v>0.81952752618864111</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>44639</v>
       </c>
@@ -18602,7 +18668,7 @@
       <c r="N18" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="8">
         <v>1</v>
       </c>
       <c r="V18">
@@ -18626,7 +18692,7 @@
         <v>0.83757477356977694</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>44670</v>
       </c>
@@ -18666,7 +18732,7 @@
       <c r="N19" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="8">
         <v>3</v>
       </c>
       <c r="V19">
@@ -18690,7 +18756,7 @@
         <v>0.85381729621279923</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>44700</v>
       </c>
@@ -18730,7 +18796,7 @@
       <c r="N20" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="8">
         <v>1</v>
       </c>
       <c r="V20">
@@ -18754,7 +18820,7 @@
         <v>0.86843556659151933</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <v>44731</v>
       </c>
@@ -18794,7 +18860,7 @@
       <c r="N21" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="8">
         <v>1</v>
       </c>
       <c r="V21">
@@ -18818,7 +18884,7 @@
         <v>0.88159200993236742</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>44761</v>
       </c>
@@ -18858,7 +18924,7 @@
       <c r="N22" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="8">
         <v>4</v>
       </c>
       <c r="V22">
@@ -18882,7 +18948,7 @@
         <v>0.89343280893913068</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>44792</v>
       </c>
@@ -18922,7 +18988,7 @@
       <c r="N23" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="8">
         <v>1</v>
       </c>
       <c r="V23">
@@ -18946,7 +19012,7 @@
         <v>0.90408952804521758</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>44823</v>
       </c>
@@ -18986,7 +19052,7 @@
       <c r="N24" s="2">
         <v>1.739206</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="8">
         <v>2</v>
       </c>
       <c r="V24">
@@ -19010,7 +19076,7 @@
         <v>0.91368057524069579</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>44853</v>
       </c>
@@ -19071,7 +19137,7 @@
         <v>0.92231251771662626</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>44884</v>
       </c>
@@ -19132,7 +19198,7 @@
         <v>0.93008126594496365</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>44914</v>
       </c>
@@ -19193,7 +19259,7 @@
         <v>0.93707313935046732</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <v>44581</v>
       </c>
@@ -19254,7 +19320,7 @@
         <v>0.94336582541542058</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <v>44612</v>
       </c>
@@ -19315,7 +19381,7 @@
         <v>0.94902924287387846</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>44640</v>
       </c>
@@ -19376,7 +19442,7 @@
         <v>0.95412631858649066</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <v>44671</v>
       </c>
@@ -19437,7 +19503,7 @@
         <v>0.95871368672784163</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <v>44701</v>
       </c>
@@ -19498,7 +19564,7 @@
         <v>0.96284231805505749</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>44732</v>
       </c>
@@ -19559,7 +19625,7 @@
         <v>0.96655808624955175</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <v>44762</v>
       </c>
@@ -19620,7 +19686,7 @@
         <v>0.96990227762459658</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <v>44793</v>
       </c>
@@ -19681,7 +19747,7 @@
         <v>0.87291204986213689</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
         <v>44824</v>
       </c>
@@ -19741,7 +19807,7 @@
         <v>0.98562084487592316</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <v>44854</v>
       </c>
@@ -19801,7 +19867,7 @@
         <v>1.1870587603883309</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
         <v>44885</v>
       </c>
@@ -19862,7 +19928,7 @@
         <v>1.1683528843494979</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W39">
         <v>1</v>
       </c>

--- a/bip8013_data.xlsx
+++ b/bip8013_data.xlsx
@@ -18,11 +18,12 @@
     <sheet name="0.5" sheetId="11" r:id="rId4"/>
     <sheet name="Optimal" sheetId="9" r:id="rId5"/>
     <sheet name="interdemand inter." sheetId="8" r:id="rId6"/>
-    <sheet name="Agregate-Disaggregate" sheetId="13" r:id="rId7"/>
+    <sheet name="Agregate-Disaggregate" sheetId="15" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="125">
   <si>
     <t>X</t>
   </si>
@@ -372,9 +373,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>BIP001271</t>
-  </si>
-  <si>
     <t>ADIDA</t>
   </si>
   <si>
@@ -403,6 +401,21 @@
   </si>
   <si>
     <t>Aggr. 9 level</t>
+  </si>
+  <si>
+    <t>Agregation level</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Obs.</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -463,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,6 +499,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1547,7 +1569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2287,7 +2309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3024,7 +3046,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3758,7 +3780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4497,7 +4519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6569,6 +6591,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8076,6 +8099,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8157,6 +8181,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9664,6 +9689,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11380,7 +11406,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11645,7 +11671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA9D-4BCF-A877-016C4869F00D}"/>
+              <c16:uniqueId val="{00000000-0113-4839-90E8-70941C1EFA73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11902,7 +11928,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA9D-4BCF-A877-016C4869F00D}"/>
+              <c16:uniqueId val="{00000001-0113-4839-90E8-70941C1EFA73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12025,7 +12051,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BA9D-4BCF-A877-016C4869F00D}"/>
+              <c16:uniqueId val="{00000002-0113-4839-90E8-70941C1EFA73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12541,7 +12567,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13299,7 +13325,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14053,7 +14079,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIP001271</c:v>
+                  <c:v>BIP008013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -23710,6 +23736,589 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="0.1"/>
+      <sheetName val="0.15"/>
+      <sheetName val="0.5"/>
+      <sheetName val="Opt."/>
+      <sheetName val="Interdemand inter."/>
+      <sheetName val="Agregate-Disaggregate"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>BIP005887</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>ADIDA</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>MAPA</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Dec-17</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Jan-18</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Feb-18</v>
+          </cell>
+          <cell r="B4">
+            <v>2</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Mar-18</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Apr-18</v>
+          </cell>
+          <cell r="B6">
+            <v>10</v>
+          </cell>
+          <cell r="C6">
+            <v>1.0783389999999999</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>May-18</v>
+          </cell>
+          <cell r="B7">
+            <v>52</v>
+          </cell>
+          <cell r="C7">
+            <v>1.0783389999999999</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Jun-18</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>6.1666910000000001</v>
+          </cell>
+          <cell r="D8">
+            <v>5.852176</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Jul-18</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>6.1666910000000001</v>
+          </cell>
+          <cell r="D9">
+            <v>5.852176</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Aug-18</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>6.1666910000000001</v>
+          </cell>
+          <cell r="D10">
+            <v>6.147691</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Sep-18</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>6.1666910000000001</v>
+          </cell>
+          <cell r="D11">
+            <v>6.1698870000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Oct-18</v>
+          </cell>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>6.1666910000000001</v>
+          </cell>
+          <cell r="D12">
+            <v>6.1698870000000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Nov-18</v>
+          </cell>
+          <cell r="B13">
+            <v>10</v>
+          </cell>
+          <cell r="C13">
+            <v>6.1666910000000001</v>
+          </cell>
+          <cell r="D13">
+            <v>6.1698870000000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Dec-18</v>
+          </cell>
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+          <cell r="C14">
+            <v>5.1895519999999999</v>
+          </cell>
+          <cell r="D14">
+            <v>5.6762990000000002</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Jan-19</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>5.1895519999999999</v>
+          </cell>
+          <cell r="D15">
+            <v>5.6762990000000002</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Feb-19</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>5.1895519999999999</v>
+          </cell>
+          <cell r="D16">
+            <v>5.6762990000000002</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Mar-19</v>
+          </cell>
+          <cell r="B17">
+            <v>6</v>
+          </cell>
+          <cell r="C17">
+            <v>5.1895519999999999</v>
+          </cell>
+          <cell r="D17">
+            <v>5.6269609999999997</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Apr-19</v>
+          </cell>
+          <cell r="B18">
+            <v>11</v>
+          </cell>
+          <cell r="C18">
+            <v>4.4738360000000004</v>
+          </cell>
+          <cell r="D18">
+            <v>5.2961749999999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>May-19</v>
+          </cell>
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+          <cell r="C19">
+            <v>4.4738360000000004</v>
+          </cell>
+          <cell r="D19">
+            <v>5.3348389999999997</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Jun-19</v>
+          </cell>
+          <cell r="B20">
+            <v>2</v>
+          </cell>
+          <cell r="C20">
+            <v>4.5093719999999999</v>
+          </cell>
+          <cell r="D20">
+            <v>5.2795180000000004</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Jul-19</v>
+          </cell>
+          <cell r="B21">
+            <v>52</v>
+          </cell>
+          <cell r="C21">
+            <v>4.5093719999999999</v>
+          </cell>
+          <cell r="D21">
+            <v>5.2196829999999999</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Aug-19</v>
+          </cell>
+          <cell r="B22">
+            <v>18</v>
+          </cell>
+          <cell r="C22">
+            <v>7.6817570000000002</v>
+          </cell>
+          <cell r="D22">
+            <v>6.2039920000000004</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Sep-19</v>
+          </cell>
+          <cell r="B23">
+            <v>6</v>
+          </cell>
+          <cell r="C23">
+            <v>7.6817570000000002</v>
+          </cell>
+          <cell r="D23">
+            <v>6.997306</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Oct-19</v>
+          </cell>
+          <cell r="B24">
+            <v>3</v>
+          </cell>
+          <cell r="C24">
+            <v>8.1427560000000003</v>
+          </cell>
+          <cell r="D24">
+            <v>7.0972309999999998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Nov-19</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+          <cell r="C25">
+            <v>8.1427560000000003</v>
+          </cell>
+          <cell r="D25">
+            <v>7.0252790000000003</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Dec-19</v>
+          </cell>
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+          <cell r="C26">
+            <v>7.0483010000000004</v>
+          </cell>
+          <cell r="D26">
+            <v>6.5723950000000002</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Jan-20</v>
+          </cell>
+          <cell r="B27">
+            <v>4</v>
+          </cell>
+          <cell r="C27">
+            <v>7.0483010000000004</v>
+          </cell>
+          <cell r="D27">
+            <v>6.5723950000000002</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Feb-20</v>
+          </cell>
+          <cell r="B28">
+            <v>10</v>
+          </cell>
+          <cell r="C28">
+            <v>6.1401979999999998</v>
+          </cell>
+          <cell r="D28">
+            <v>6.3916950000000003</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Mar-20</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="C29">
+            <v>6.1401979999999998</v>
+          </cell>
+          <cell r="D29">
+            <v>6.3611769999999996</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Apr-20</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D30">
+            <v>5.9639629999999997</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>May-20</v>
+          </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D31">
+            <v>5.9229510000000003</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Jun-20</v>
+          </cell>
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+          <cell r="C32">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D32">
+            <v>5.9229510000000003</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Jul-20</v>
+          </cell>
+          <cell r="B33">
+            <v>0</v>
+          </cell>
+          <cell r="C33">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D33">
+            <v>5.8846999999999996</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Aug-20</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+          <cell r="C34">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D34">
+            <v>5.8846999999999996</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Sep-20</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+          <cell r="C35">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D35">
+            <v>5.8846999999999996</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Oct-20</v>
+          </cell>
+          <cell r="B36">
+            <v>11</v>
+          </cell>
+          <cell r="C36">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D36">
+            <v>5.8846999999999996</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Nov-20</v>
+          </cell>
+          <cell r="B37">
+            <v>3</v>
+          </cell>
+          <cell r="C37">
+            <v>5.84375</v>
+          </cell>
+          <cell r="D37">
+            <v>5.6992289999999999</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>4.9694890000000003</v>
+          </cell>
+          <cell r="D38">
+            <v>4.8929150000000003</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>4.9694890000000003</v>
+          </cell>
+          <cell r="D39">
+            <v>4.8929150000000003</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>4.9694890000000003</v>
+          </cell>
+          <cell r="D40">
+            <v>4.8929150000000003</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>4.9694890000000003</v>
+          </cell>
+          <cell r="D41">
+            <v>4.8929150000000003</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>4.9694890000000003</v>
+          </cell>
+          <cell r="D42">
+            <v>4.8929150000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23997,10 +24606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24549,7 +25158,7 @@
         <v>1.6439993824779938E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -24589,7 +25198,7 @@
       </c>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -24605,7 +25214,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -24618,7 +25227,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -24649,8 +25258,14 @@
       <c r="V20" t="s">
         <v>52</v>
       </c>
+      <c r="Y20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -24684,8 +25299,17 @@
       <c r="V21">
         <v>0.16236999999999999</v>
       </c>
+      <c r="X21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>340.88409999999999</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>376.36380000000003</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -24722,8 +25346,17 @@
       <c r="V22" s="2">
         <v>333.1003</v>
       </c>
+      <c r="X22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>752.57989999999995</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>740.6961</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -24760,8 +25393,17 @@
       <c r="V23" s="2">
         <v>756.7885</v>
       </c>
+      <c r="X23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>1330.5878</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>1347.1755000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -24802,8 +25444,19 @@
       <c r="V24" s="2">
         <v>1322.5387000000001</v>
       </c>
+      <c r="X24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>Y23-Y22</f>
+        <v>578.00790000000006</v>
+      </c>
+      <c r="Z24" s="2">
+        <f>Z23-Z22</f>
+        <v>606.47940000000006</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -24836,8 +25489,13 @@
         <f>V24-V23</f>
         <v>565.75020000000006</v>
       </c>
+      <c r="X25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -24867,8 +25525,16 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
+      <c r="X26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5">
+        <f>(Y23-Z23)/Z23</f>
+        <v>-1.2312946605694685E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -24910,8 +25576,16 @@
         <f>(S24-O6)/O6</f>
         <v>2.2142382773296616E-2</v>
       </c>
+      <c r="X27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y27" s="5">
+        <f>(Z23-Y23)/Y23</f>
+        <v>1.2466445280799991E-2</v>
+      </c>
+      <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -24953,8 +25627,13 @@
         <f>($S$24-V6)/V6</f>
         <v>1.7922918040128927E-2</v>
       </c>
+      <c r="X28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -24996,8 +25675,16 @@
         <f>($T$24-O6)/O6</f>
         <v>3.7317075836198567E-2</v>
       </c>
+      <c r="X29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="5">
+        <f>(Y22-Z22)/Z22</f>
+        <v>1.6044096897499461E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -25030,8 +25717,16 @@
         <f>($T$24-V6)/V6</f>
         <v>3.3034969064803452E-2</v>
       </c>
+      <c r="X30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y30" s="5">
+        <f>(Z22-Y22)/Y22</f>
+        <v>-1.5790748596926321E-2</v>
+      </c>
+      <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -25074,7 +25769,7 @@
         <v>3.7517561136419887E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -25416,7 +26111,9 @@
     <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="X28:Z28"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="K30:O30"/>
     <mergeCell ref="R26:V26"/>
@@ -29634,7 +30331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -33115,7 +33812,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33125,13 +33822,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33352,10 +34049,10 @@
         <v>812.25459999999998</v>
       </c>
       <c r="I23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" t="s">
         <v>111</v>
-      </c>
-      <c r="J23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -33485,7 +34182,7 @@
         <v>878.75450000000001</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
@@ -33507,7 +34204,7 @@
         <v>847.20479999999998</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I30" s="5">
         <f>(J26-I26)/I26</f>
@@ -33548,7 +34245,7 @@
         <v>821.02499999999998</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="5">
@@ -33570,7 +34267,7 @@
         <v>814.29639999999995</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I33" s="5">
         <f>(J25-I25)/I25</f>
@@ -33714,14 +34411,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="8.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33730,31 +34428,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -34463,7 +35161,170 @@
         <v>5001</v>
       </c>
     </row>
+    <row r="64" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="15"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="12">
+        <v>2</v>
+      </c>
+      <c r="D65" s="12">
+        <v>3</v>
+      </c>
+      <c r="E65" s="12">
+        <v>4</v>
+      </c>
+      <c r="F65" s="12">
+        <v>5</v>
+      </c>
+      <c r="G65" s="12">
+        <v>6</v>
+      </c>
+      <c r="H65" s="12">
+        <v>7</v>
+      </c>
+      <c r="I65" s="12">
+        <v>8</v>
+      </c>
+      <c r="J65" s="12">
+        <v>9</v>
+      </c>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="12">
+        <v>18</v>
+      </c>
+      <c r="D66" s="12">
+        <v>12</v>
+      </c>
+      <c r="E66" s="12">
+        <v>9</v>
+      </c>
+      <c r="F66" s="12">
+        <v>7</v>
+      </c>
+      <c r="G66" s="12">
+        <v>6</v>
+      </c>
+      <c r="H66" s="12">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="14">
+        <v>1.6363635999999999</v>
+      </c>
+      <c r="D67" s="14">
+        <v>1.3333333000000001</v>
+      </c>
+      <c r="E67" s="14">
+        <v>1.2857143</v>
+      </c>
+      <c r="F67" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="G67" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="H67" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="I67" s="14">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1.3333333000000001</v>
+      </c>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="14">
+        <v>0.60410540000000001</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.55920250000000005</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0.67243759999999997</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0.40601870000000001</v>
+      </c>
+      <c r="G68" s="14">
+        <v>0.71037539999999999</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0.39314739999999998</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.78833869999999995</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.18743119999999999</v>
+      </c>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B64:J64"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/bip8013_data.xlsx
+++ b/bip8013_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     <sheet name="Agregate-Disaggregate" sheetId="15" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="121">
   <si>
     <t>X</t>
   </si>
@@ -343,25 +339,7 @@
     <t>20-Nov</t>
   </si>
   <si>
-    <t>SES (0.1)</t>
-  </si>
-  <si>
-    <t>Croston (0.1)</t>
-  </si>
-  <si>
-    <t>Croston (0.15)</t>
-  </si>
-  <si>
-    <t>SBA (0.1)</t>
-  </si>
-  <si>
-    <t>SBA (0.15)</t>
-  </si>
-  <si>
     <t>SBJ (0.1)</t>
-  </si>
-  <si>
-    <t>SBJ (0.15)</t>
   </si>
   <si>
     <t>SES (0.15)</t>
@@ -416,6 +394,12 @@
   </si>
   <si>
     <t>CV</t>
+  </si>
+  <si>
+    <t>SBJ (0.5)</t>
+  </si>
+  <si>
+    <t>SES (0.1827)</t>
   </si>
 </sst>
 </file>
@@ -489,6 +473,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -496,15 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1332,7 +1316,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1968,7 +1951,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2075,7 +2057,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2708,7 +2689,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2815,7 +2795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3445,7 +3424,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3552,7 +3530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4179,7 +4156,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4291,7 +4267,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4918,7 +4893,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6591,7 +6565,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8099,7 +8072,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12297,7 +12269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12966,7 +12937,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13073,7 +13043,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13724,7 +13693,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13836,7 +13804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14478,7 +14445,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22658,1667 +22624,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="0.1"/>
-      <sheetName val="0.15"/>
-      <sheetName val="0.5"/>
-      <sheetName val="optimal"/>
-      <sheetName val="interdemand inter."/>
-      <sheetName val="Agregate-Disaggregate"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP001271</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>ADIDA</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>MAPA</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>16</v>
-          </cell>
-          <cell r="C4">
-            <v>6.1503969999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>13</v>
-          </cell>
-          <cell r="C5">
-            <v>6.1503969999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>22</v>
-          </cell>
-          <cell r="C6">
-            <v>8.4141709999999996</v>
-          </cell>
-          <cell r="D6">
-            <v>17.762799999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>49</v>
-          </cell>
-          <cell r="C7">
-            <v>8.4141709999999996</v>
-          </cell>
-          <cell r="D7">
-            <v>17.800249999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>28</v>
-          </cell>
-          <cell r="C8">
-            <v>15.757759999999999</v>
-          </cell>
-          <cell r="D8">
-            <v>18.912510000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>15</v>
-          </cell>
-          <cell r="C9">
-            <v>15.757759999999999</v>
-          </cell>
-          <cell r="D9">
-            <v>18.97653</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="C10">
-            <v>17.314620000000001</v>
-          </cell>
-          <cell r="D10">
-            <v>19.13109</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>13</v>
-          </cell>
-          <cell r="C11">
-            <v>17.314620000000001</v>
-          </cell>
-          <cell r="D11">
-            <v>19.00544</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>16</v>
-          </cell>
-          <cell r="C12">
-            <v>15.33146</v>
-          </cell>
-          <cell r="D12">
-            <v>18.726420000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>29</v>
-          </cell>
-          <cell r="C13">
-            <v>15.33146</v>
-          </cell>
-          <cell r="D13">
-            <v>18.69923</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>22</v>
-          </cell>
-          <cell r="C14">
-            <v>17.275010000000002</v>
-          </cell>
-          <cell r="D14">
-            <v>19.049589999999998</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>17.275010000000002</v>
-          </cell>
-          <cell r="D15">
-            <v>19.070029999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="C16">
-            <v>16.387080000000001</v>
-          </cell>
-          <cell r="D16">
-            <v>18.84883</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>38</v>
-          </cell>
-          <cell r="C17">
-            <v>16.387080000000001</v>
-          </cell>
-          <cell r="D17">
-            <v>18.682020000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>45</v>
-          </cell>
-          <cell r="C18">
-            <v>17.366630000000001</v>
-          </cell>
-          <cell r="D18">
-            <v>18.968540000000001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>17.366630000000001</v>
-          </cell>
-          <cell r="D19">
-            <v>19.197690000000001</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1</v>
-          </cell>
-          <cell r="C20">
-            <v>21.198509999999999</v>
-          </cell>
-          <cell r="D20">
-            <v>19.631769999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>37</v>
-          </cell>
-          <cell r="C21">
-            <v>21.198509999999999</v>
-          </cell>
-          <cell r="D21">
-            <v>19.455439999999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>45</v>
-          </cell>
-          <cell r="C22">
-            <v>20.602440000000001</v>
-          </cell>
-          <cell r="D22">
-            <v>19.484719999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>12</v>
-          </cell>
-          <cell r="C23">
-            <v>20.602440000000001</v>
-          </cell>
-          <cell r="D23">
-            <v>19.72054</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>22</v>
-          </cell>
-          <cell r="C24">
-            <v>22.743649999999999</v>
-          </cell>
-          <cell r="D24">
-            <v>19.862719999999999</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>16</v>
-          </cell>
-          <cell r="C25">
-            <v>22.743649999999999</v>
-          </cell>
-          <cell r="D25">
-            <v>19.863409999999998</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>18</v>
-          </cell>
-          <cell r="C26">
-            <v>21.728660000000001</v>
-          </cell>
-          <cell r="D26">
-            <v>19.712620000000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="C27">
-            <v>21.728660000000001</v>
-          </cell>
-          <cell r="D27">
-            <v>19.682400000000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>14</v>
-          </cell>
-          <cell r="C28">
-            <v>21.93779</v>
-          </cell>
-          <cell r="D28">
-            <v>19.757439999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>4</v>
-          </cell>
-          <cell r="C29">
-            <v>21.93779</v>
-          </cell>
-          <cell r="D29">
-            <v>19.692799999999998</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>5</v>
-          </cell>
-          <cell r="C30">
-            <v>18.430060000000001</v>
-          </cell>
-          <cell r="D30">
-            <v>19.007960000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>6</v>
-          </cell>
-          <cell r="C31">
-            <v>18.430060000000001</v>
-          </cell>
-          <cell r="D31">
-            <v>18.879629999999999</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>1</v>
-          </cell>
-          <cell r="C32">
-            <v>14.92442</v>
-          </cell>
-          <cell r="D32">
-            <v>18.349519999999998</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>28</v>
-          </cell>
-          <cell r="C33">
-            <v>14.92442</v>
-          </cell>
-          <cell r="D33">
-            <v>18.206040000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>14.80935</v>
-          </cell>
-          <cell r="D34">
-            <v>18.268619999999999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>14.80935</v>
-          </cell>
-          <cell r="D35">
-            <v>18.248329999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>41</v>
-          </cell>
-          <cell r="C36">
-            <v>14.80935</v>
-          </cell>
-          <cell r="D36">
-            <v>18.248329999999999</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>60</v>
-          </cell>
-          <cell r="C37">
-            <v>14.80935</v>
-          </cell>
-          <cell r="D37">
-            <v>18.46105</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>12.24295</v>
-          </cell>
-          <cell r="D38">
-            <v>18.39264</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>12.24295</v>
-          </cell>
-          <cell r="D39">
-            <v>18.39264</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>12.24295</v>
-          </cell>
-          <cell r="D40">
-            <v>18.39264</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>12.24295</v>
-          </cell>
-          <cell r="D41">
-            <v>18.39264</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>12.24295</v>
-          </cell>
-          <cell r="D42">
-            <v>18.39264</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP001271</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Aggr. 2 level</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Aggr. 3 level</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Aggr. 4 level</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Aggr. 5 level</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Aggr. 6 level</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Aggr. 7 level</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Aggr. 8 level</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>Aggr. 9 level</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>10</v>
-          </cell>
-          <cell r="C3">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>16</v>
-          </cell>
-          <cell r="D4">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>13</v>
-          </cell>
-          <cell r="C5">
-            <v>29</v>
-          </cell>
-          <cell r="E5">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>49</v>
-          </cell>
-          <cell r="C7">
-            <v>71</v>
-          </cell>
-          <cell r="D7">
-            <v>84</v>
-          </cell>
-          <cell r="F7">
-            <v>110</v>
-          </cell>
-          <cell r="G7">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>15</v>
-          </cell>
-          <cell r="C9">
-            <v>43</v>
-          </cell>
-          <cell r="E9">
-            <v>114</v>
-          </cell>
-          <cell r="H9">
-            <v>153</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="D10">
-            <v>50</v>
-          </cell>
-          <cell r="J10">
-            <v>160</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>13</v>
-          </cell>
-          <cell r="C11">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>16</v>
-          </cell>
-          <cell r="F12">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>29</v>
-          </cell>
-          <cell r="C13">
-            <v>45</v>
-          </cell>
-          <cell r="D13">
-            <v>58</v>
-          </cell>
-          <cell r="E13">
-            <v>65</v>
-          </cell>
-          <cell r="G13">
-            <v>108</v>
-          </cell>
-          <cell r="I13">
-            <v>179</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-          <cell r="D16">
-            <v>30</v>
-          </cell>
-          <cell r="H16">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>38</v>
-          </cell>
-          <cell r="C17">
-            <v>40</v>
-          </cell>
-          <cell r="E17">
-            <v>68</v>
-          </cell>
-          <cell r="F17">
-            <v>97</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>18</v>
-          </cell>
-          <cell r="C19">
-            <v>63</v>
-          </cell>
-          <cell r="D19">
-            <v>101</v>
-          </cell>
-          <cell r="G19">
-            <v>131</v>
-          </cell>
-          <cell r="J19">
-            <v>189</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>37</v>
-          </cell>
-          <cell r="C21">
-            <v>38</v>
-          </cell>
-          <cell r="E21">
-            <v>101</v>
-          </cell>
-          <cell r="I21">
-            <v>169</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>45</v>
-          </cell>
-          <cell r="D22">
-            <v>83</v>
-          </cell>
-          <cell r="F22">
-            <v>146</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>12</v>
-          </cell>
-          <cell r="C23">
-            <v>57</v>
-          </cell>
-          <cell r="H23">
-            <v>196</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>16</v>
-          </cell>
-          <cell r="C25">
-            <v>38</v>
-          </cell>
-          <cell r="D25">
-            <v>50</v>
-          </cell>
-          <cell r="E25">
-            <v>95</v>
-          </cell>
-          <cell r="G25">
-            <v>133</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>27</v>
-          </cell>
-          <cell r="C27">
-            <v>45</v>
-          </cell>
-          <cell r="F27">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>14</v>
-          </cell>
-          <cell r="D28">
-            <v>59</v>
-          </cell>
-          <cell r="J28">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>4</v>
-          </cell>
-          <cell r="C29">
-            <v>18</v>
-          </cell>
-          <cell r="E29">
-            <v>63</v>
-          </cell>
-          <cell r="I29">
-            <v>158</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>5</v>
-          </cell>
-          <cell r="H30">
-            <v>106</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>6</v>
-          </cell>
-          <cell r="C31">
-            <v>11</v>
-          </cell>
-          <cell r="D31">
-            <v>15</v>
-          </cell>
-          <cell r="G31">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>1</v>
-          </cell>
-          <cell r="F32">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>28</v>
-          </cell>
-          <cell r="C33">
-            <v>29</v>
-          </cell>
-          <cell r="E33">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="D34">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>60</v>
-          </cell>
-          <cell r="C37">
-            <v>101</v>
-          </cell>
-          <cell r="D37">
-            <v>101</v>
-          </cell>
-          <cell r="E37">
-            <v>101</v>
-          </cell>
-          <cell r="F37">
-            <v>129</v>
-          </cell>
-          <cell r="G37">
-            <v>130</v>
-          </cell>
-          <cell r="H37">
-            <v>136</v>
-          </cell>
-          <cell r="I37">
-            <v>141</v>
-          </cell>
-          <cell r="J37">
-            <v>145</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="0.1"/>
-      <sheetName val="0.15"/>
-      <sheetName val="0.5"/>
-      <sheetName val="Opt."/>
-      <sheetName val="Interdemand inter."/>
-      <sheetName val="Agregate-Disaggregate"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP005887</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>ADIDA</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>MAPA</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>10</v>
-          </cell>
-          <cell r="C6">
-            <v>1.0783389999999999</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>52</v>
-          </cell>
-          <cell r="C7">
-            <v>1.0783389999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>6.1666910000000001</v>
-          </cell>
-          <cell r="D8">
-            <v>5.852176</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>6.1666910000000001</v>
-          </cell>
-          <cell r="D9">
-            <v>5.852176</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>6.1666910000000001</v>
-          </cell>
-          <cell r="D10">
-            <v>6.147691</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>6.1666910000000001</v>
-          </cell>
-          <cell r="D11">
-            <v>6.1698870000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>6.1666910000000001</v>
-          </cell>
-          <cell r="D12">
-            <v>6.1698870000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>10</v>
-          </cell>
-          <cell r="C13">
-            <v>6.1666910000000001</v>
-          </cell>
-          <cell r="D13">
-            <v>6.1698870000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>5.1895519999999999</v>
-          </cell>
-          <cell r="D14">
-            <v>5.6762990000000002</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>5.1895519999999999</v>
-          </cell>
-          <cell r="D15">
-            <v>5.6762990000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>5.1895519999999999</v>
-          </cell>
-          <cell r="D16">
-            <v>5.6762990000000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>6</v>
-          </cell>
-          <cell r="C17">
-            <v>5.1895519999999999</v>
-          </cell>
-          <cell r="D17">
-            <v>5.6269609999999997</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>11</v>
-          </cell>
-          <cell r="C18">
-            <v>4.4738360000000004</v>
-          </cell>
-          <cell r="D18">
-            <v>5.2961749999999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>4.4738360000000004</v>
-          </cell>
-          <cell r="D19">
-            <v>5.3348389999999997</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>4.5093719999999999</v>
-          </cell>
-          <cell r="D20">
-            <v>5.2795180000000004</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>52</v>
-          </cell>
-          <cell r="C21">
-            <v>4.5093719999999999</v>
-          </cell>
-          <cell r="D21">
-            <v>5.2196829999999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>18</v>
-          </cell>
-          <cell r="C22">
-            <v>7.6817570000000002</v>
-          </cell>
-          <cell r="D22">
-            <v>6.2039920000000004</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>7.6817570000000002</v>
-          </cell>
-          <cell r="D23">
-            <v>6.997306</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>3</v>
-          </cell>
-          <cell r="C24">
-            <v>8.1427560000000003</v>
-          </cell>
-          <cell r="D24">
-            <v>7.0972309999999998</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>1</v>
-          </cell>
-          <cell r="C25">
-            <v>8.1427560000000003</v>
-          </cell>
-          <cell r="D25">
-            <v>7.0252790000000003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>7.0483010000000004</v>
-          </cell>
-          <cell r="D26">
-            <v>6.5723950000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>4</v>
-          </cell>
-          <cell r="C27">
-            <v>7.0483010000000004</v>
-          </cell>
-          <cell r="D27">
-            <v>6.5723950000000002</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>10</v>
-          </cell>
-          <cell r="C28">
-            <v>6.1401979999999998</v>
-          </cell>
-          <cell r="D28">
-            <v>6.3916950000000003</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>6.1401979999999998</v>
-          </cell>
-          <cell r="D29">
-            <v>6.3611769999999996</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D30">
-            <v>5.9639629999999997</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D31">
-            <v>5.9229510000000003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D32">
-            <v>5.9229510000000003</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D33">
-            <v>5.8846999999999996</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D34">
-            <v>5.8846999999999996</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D35">
-            <v>5.8846999999999996</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>11</v>
-          </cell>
-          <cell r="C36">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D36">
-            <v>5.8846999999999996</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>3</v>
-          </cell>
-          <cell r="C37">
-            <v>5.84375</v>
-          </cell>
-          <cell r="D37">
-            <v>5.6992289999999999</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>4.9694890000000003</v>
-          </cell>
-          <cell r="D38">
-            <v>4.8929150000000003</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>4.9694890000000003</v>
-          </cell>
-          <cell r="D39">
-            <v>4.8929150000000003</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>4.9694890000000003</v>
-          </cell>
-          <cell r="D40">
-            <v>4.8929150000000003</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>4.9694890000000003</v>
-          </cell>
-          <cell r="D41">
-            <v>4.8929150000000003</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>4.9694890000000003</v>
-          </cell>
-          <cell r="D42">
-            <v>4.8929150000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -24606,10 +22911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24618,9 +22923,10 @@
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="27" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24628,7 +22934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -24642,7 +22948,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -24673,8 +22979,20 @@
       <c r="V3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -24711,8 +23029,26 @@
       <c r="V4" s="2">
         <v>318.20479999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>340.88409999999999</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>376.36380000000003</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>117.1781</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>376.36380000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -24749,8 +23085,26 @@
       <c r="V5" s="2">
         <v>758.51610000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>752.57989999999995</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>740.6961</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>752.0258</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>740.6961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -24787,8 +23141,26 @@
       <c r="V6" s="2">
         <v>1277.1859999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1330.5878</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1347.1755000000001</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1300.0769</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1347.1755000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -24833,30 +23205,62 @@
         <f>V6-V5</f>
         <v>518.66989999999987</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>Y6-Y5</f>
+        <v>578.00790000000006</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>Z6-Z5</f>
+        <v>606.47940000000006</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>AC6-AC5</f>
+        <v>548.05110000000002</v>
+      </c>
+      <c r="AD7" s="2">
+        <f>AD6-AD5</f>
+        <v>606.47940000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="R8" s="9" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="R8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="X8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -24868,35 +23272,51 @@
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
-        <f>(L6-M6)/M6</f>
-        <v>3.1366867348915528E-2</v>
+        <f>(M6-L6)/L6</f>
+        <v>-3.0412909646344098E-2</v>
       </c>
       <c r="N9" s="5">
-        <f>(L6-N6)/N6</f>
-        <v>3.1747566709121385E-2</v>
+        <f>(N6-L6)/L6</f>
+        <v>-3.0770672724127604E-2</v>
       </c>
       <c r="O9" s="5">
-        <f>(L6-O6)/O6</f>
-        <v>3.1768900673056551E-2</v>
+        <f>(O6-L6)/L6</f>
+        <v>-3.0790713552552959E-2</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5">
-        <f>(S6-T6)/T6</f>
-        <v>1.8457616437803019E-2</v>
+        <f>(T6-S6)/S6</f>
+        <v>-1.8123107078683448E-2</v>
       </c>
       <c r="U9" s="5">
-        <f>(S6-U6)/U6</f>
-        <v>1.9106524399047101E-2</v>
+        <f>(U6-S6)/S6</f>
+        <v>-1.8748309368654029E-2</v>
       </c>
       <c r="V9" s="5">
-        <f>(S6-V6)/V6</f>
-        <v>1.9161422063818451E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V6-S6)/S6</f>
+        <v>-1.8801165005849867E-2</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5">
+        <f>(Z6-Y6)/Y6</f>
+        <v>1.2466445280799991E-2</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5">
+        <f>(AD6-AC6)/AC6</f>
+        <v>3.6227549308813986E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -24906,37 +23326,41 @@
       <c r="K10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="5">
-        <f>(M6-L6)/L6</f>
-        <v>-3.0412909646344098E-2</v>
-      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5">
-        <f>(M6-N6)/N6</f>
-        <v>3.6912118496149613E-4</v>
+        <f>(N6-M6)/M6</f>
+        <v>-3.6898498478667868E-4</v>
       </c>
       <c r="O10" s="5">
-        <f>(M6-O6)/O6</f>
-        <v>3.898063209791021E-4</v>
+        <f>(O6-M6)/M6</f>
+        <v>-3.896544312188155E-4</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="5">
-        <f>(T6-S6)/S6</f>
-        <v>-1.8123107078683448E-2</v>
-      </c>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5">
-        <f>(T6-U6)/U6</f>
-        <v>6.3714773277824316E-4</v>
+        <f>(U6-T6)/T6</f>
+        <v>-6.3674203403489321E-4</v>
       </c>
       <c r="V10" s="5">
-        <f>(T6-V6)/V6</f>
-        <v>6.9105048129257493E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V6-T6)/T6</f>
+        <v>-6.9057326030867088E-4</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AB10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -24946,99 +23370,106 @@
       <c r="K11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="5">
-        <f>(N6-L6)/L6</f>
-        <v>-3.0770672724127604E-2</v>
-      </c>
-      <c r="M11" s="5">
-        <f>(N6-M6)/M6</f>
-        <v>-3.6898498478667868E-4</v>
-      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5">
-        <f>(N6-O6)/O6</f>
-        <v>2.0677503513007207E-5</v>
+        <f>(O6-N6)/N6</f>
+        <v>-2.067707596269635E-5</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S11" s="5">
-        <f>(U6-S6)/S6</f>
-        <v>-1.8748309368654029E-2</v>
-      </c>
-      <c r="T11" s="5">
-        <f>(U6-T6)/T6</f>
-        <v>-6.3674203403489321E-4</v>
-      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5">
-        <f>(U6-V6)/V6</f>
-        <v>5.3868426368602689E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V6-U6)/U6</f>
+        <v>-5.3865524717550633E-5</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="5">
+        <f>(Z5-Y5)/Y5</f>
+        <v>-1.5790748596926321E-2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="5">
+        <f>(AD5-AC5)/AC5</f>
+        <v>-1.5065573548141569E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="5">
-        <f>(O6-L6)/L6</f>
-        <v>-3.0790713552552959E-2</v>
-      </c>
-      <c r="M12" s="5">
-        <f>(O6-M6)/M6</f>
-        <v>-3.896544312188155E-4</v>
-      </c>
-      <c r="N12" s="5">
-        <f>(O6-N6)/N6</f>
-        <v>-2.067707596269635E-5</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="R12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" s="5">
-        <f>(V6-S6)/S6</f>
-        <v>-1.8801165005849867E-2</v>
-      </c>
-      <c r="T12" s="5">
-        <f>(V6-T6)/T6</f>
-        <v>-6.9057326030867088E-4</v>
-      </c>
-      <c r="U12" s="5">
-        <f>(V6-U6)/U6</f>
-        <v>-5.3865524717550633E-5</v>
-      </c>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="R12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="R13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5">
+        <f>(M5-L5)/L5</f>
+        <v>-2.9061164366863783E-3</v>
+      </c>
+      <c r="N13" s="5">
+        <f>(N5-L5)/L5</f>
+        <v>-3.8179244625726723E-3</v>
+      </c>
+      <c r="O13" s="5">
+        <f>(O5-L5)/L5</f>
+        <v>-3.8681048551571771E-3</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5">
+        <f>(T5-S5)/S5</f>
+        <v>7.1650254849804692E-3</v>
+      </c>
+      <c r="U13" s="5">
+        <f>(U5-S5)/S5</f>
+        <v>5.2485835714696652E-3</v>
+      </c>
+      <c r="V13" s="5">
+        <f>(V5-S5)/S5</f>
+        <v>5.0833479311358952E-3</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -25046,39 +23477,33 @@
         <v>5480</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5">
-        <f>(L5-M5)/M5</f>
-        <v>2.914586564607931E-3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="5">
-        <f>(L5-N5)/N5</f>
-        <v>3.8325568752207786E-3</v>
+        <f>(N5-M5)/M5</f>
+        <v>-9.1446556930804379E-4</v>
       </c>
       <c r="O14" s="5">
-        <f>(L5-O5)/O5</f>
-        <v>3.8831251905599652E-3</v>
+        <f>(O5-M5)/M5</f>
+        <v>-9.6479221699058198E-4</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5">
-        <f>(S5-T5)/T5</f>
-        <v>-7.1140531131234355E-3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="5">
-        <f>(S5-U5)/U5</f>
-        <v>-5.2211797730889412E-3</v>
+        <f>(U5-T5)/T5</f>
+        <v>-1.9028082439498724E-3</v>
       </c>
       <c r="V14" s="5">
-        <f>(S5-V5)/V5</f>
-        <v>-5.057638196473418E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V5-T5)/T5</f>
+        <v>-2.0668683891621274E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -25086,119 +23511,53 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="5">
-        <f>(M5-L5)/L5</f>
-        <v>-2.9061164366863783E-3</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5">
-        <f>(M5-N5)/N5</f>
-        <v>9.1530258200478584E-4</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="5">
-        <f>(M5-O5)/O5</f>
-        <v>9.6572393993158941E-4</v>
+        <f>(O5-N5)/N5</f>
+        <v>-5.0372711793105669E-5</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="5">
-        <f>(T5-S5)/S5</f>
-        <v>7.1650254849804692E-3</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5">
-        <f>(T5-U5)/U5</f>
-        <v>1.9064358257556819E-3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="4"/>
       <c r="V15" s="5">
-        <f>(T5-V5)/V5</f>
-        <v>2.0711491819355088E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <f>(V5-U5)/U5</f>
+        <v>-1.6437291535066612E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="5">
-        <f>(N5-L5)/L5</f>
-        <v>-3.8179244625726723E-3</v>
-      </c>
-      <c r="M16" s="5">
-        <f>(N5-M5)/M5</f>
-        <v>-9.1446556930804379E-4</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5">
-        <f>(N5-O5)/O5</f>
-        <v>5.0375249331021729E-5</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" s="5">
-        <f>(U5-S5)/S5</f>
-        <v>5.2485835714696652E-3</v>
-      </c>
-      <c r="T16" s="5">
-        <f>(U5-T5)/T5</f>
-        <v>-1.9028082439498724E-3</v>
-      </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="5">
-        <f>(U5-V5)/V5</f>
-        <v>1.6439993824779938E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="5">
-        <f>(O5-L5)/L5</f>
-        <v>-3.8681048551571771E-3</v>
-      </c>
-      <c r="M17" s="5">
-        <f>(O5-M5)/M5</f>
-        <v>-9.6479221699058198E-4</v>
-      </c>
-      <c r="N17" s="5">
-        <f>(O5-N5)/N5</f>
-        <v>-5.0372711793105669E-5</v>
-      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="4"/>
-      <c r="R17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="5">
-        <f>(V5-S5)/S5</f>
-        <v>5.0833479311358952E-3</v>
-      </c>
-      <c r="T17" s="5">
-        <f>(V5-T5)/T5</f>
-        <v>-2.0668683891621274E-3</v>
-      </c>
-      <c r="U17" s="5">
-        <f>(V5-U5)/U5</f>
-        <v>-1.6437291535066612E-4</v>
-      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -25214,7 +23573,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -25227,7 +23586,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -25259,13 +23618,19 @@
         <v>52</v>
       </c>
       <c r="Y20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -25303,13 +23668,19 @@
         <v>53</v>
       </c>
       <c r="Y21" s="2">
-        <v>340.88409999999999</v>
+        <v>303.51330000000002</v>
       </c>
       <c r="Z21" s="2">
-        <v>376.36380000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>145.0505</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>329.14150000000001</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>117.1781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -25350,13 +23721,19 @@
         <v>54</v>
       </c>
       <c r="Y22" s="2">
-        <v>752.57989999999995</v>
+        <v>756.32380000000001</v>
       </c>
       <c r="Z22" s="2">
-        <v>740.6961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>754.6798</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>754.19240000000002</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>752.0258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -25397,13 +23774,19 @@
         <v>55</v>
       </c>
       <c r="Y23" s="2">
-        <v>1330.5878</v>
+        <v>1271.9137000000001</v>
       </c>
       <c r="Z23" s="2">
-        <v>1347.1755000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1301.6587</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>1313.6713</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>1300.0769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -25449,27 +23832,35 @@
       </c>
       <c r="Y24" s="2">
         <f>Y23-Y22</f>
-        <v>578.00790000000006</v>
+        <v>515.58990000000006</v>
       </c>
       <c r="Z24" s="2">
         <f>Z23-Z22</f>
-        <v>606.47940000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>546.97889999999995</v>
+      </c>
+      <c r="AA24" s="2">
+        <f>AA23-AA22</f>
+        <v>559.47889999999995</v>
+      </c>
+      <c r="AB24" s="2">
+        <f>AB23-AB22</f>
+        <v>548.05110000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
       <c r="R25" t="s">
         <v>58</v>
       </c>
@@ -25489,13 +23880,15 @@
         <f>V24-V23</f>
         <v>565.75020000000006</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="X25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-    </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -25507,34 +23900,42 @@
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5">
-        <f>(L23-M23)/M23</f>
-        <v>1.5403993990943362E-2</v>
+        <f>(M23-L23)/L23</f>
+        <v>-1.5170310617352913E-2</v>
       </c>
       <c r="N26" s="5">
-        <f>(L23-N23)/N23</f>
-        <v>4.4587450112128439E-2</v>
+        <f>(N23-L23)/L23</f>
+        <v>-4.268426746591903E-2</v>
       </c>
       <c r="O26" s="5">
-        <f>(L23-O23)/O23</f>
-        <v>4.9269311128286093E-2</v>
-      </c>
-      <c r="R26" s="9" t="s">
+        <f>(O23-L23)/L23</f>
+        <v>-4.695582974337302E-2</v>
+      </c>
+      <c r="R26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="X26" s="4" t="s">
-        <v>110</v>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="X26" t="s">
+        <v>100</v>
       </c>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5">
-        <f>(Y23-Z23)/Z23</f>
-        <v>-1.2312946605694685E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <f>(Z23-Y23)/Y23</f>
+        <v>2.33860206081591E-2</v>
+      </c>
+      <c r="AA26" s="5">
+        <f>(AA23-Y23)/Y23</f>
+        <v>3.28305293039928E-2</v>
+      </c>
+      <c r="AB26" s="5">
+        <f>(AB23-Y23)/Y23</f>
+        <v>2.2142382773296616E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -25544,48 +23945,47 @@
       <c r="K27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="5">
-        <f>(M23-L23)/L23</f>
-        <v>-1.5170310617352913E-2</v>
-      </c>
+      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5">
-        <f>(M23-N23)/N23</f>
-        <v>2.8740734026938813E-2</v>
+        <f>(N23-M23)/M23</f>
+        <v>-2.7937781674528504E-2</v>
       </c>
       <c r="O27" s="5">
-        <f>(M23-O23)/O23</f>
-        <v>3.3351569757214081E-2</v>
+        <f>(O23-M23)/M23</f>
+        <v>-3.2275143071636335E-2</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S27" s="5">
-        <f>(S24-L6)/L6</f>
-        <v>-9.3301105445999042E-3</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="S27" s="5"/>
       <c r="T27" s="5">
-        <f>(S24-M6)/M6</f>
-        <v>2.1744100464512441E-2</v>
+        <f>(T24-S24)/S24</f>
+        <v>1.4845967957741542E-2</v>
       </c>
       <c r="U27" s="5">
-        <f>(S24-N6)/N6</f>
-        <v>2.2121247857603322E-2</v>
+        <f>(U24-S24)/S24</f>
+        <v>1.5042110201327371E-2</v>
       </c>
       <c r="V27" s="5">
-        <f>(S24-O6)/O6</f>
-        <v>2.2142382773296616E-2</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y27" s="5">
-        <f>(Z23-Y23)/Y23</f>
-        <v>1.2466445280799991E-2</v>
-      </c>
+        <f>(V24-S24)/S24</f>
+        <v>1.7277285674408983E-2</v>
+      </c>
+      <c r="X27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="5">
+        <f>(AA23-Z23)/Z23</f>
+        <v>9.2286864444573839E-3</v>
+      </c>
+      <c r="AB27" s="5">
+        <f>(AB23-Z23)/Z23</f>
+        <v>-1.2152187051797296E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -25595,138 +23995,117 @@
       <c r="K28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="5">
-        <f>(N23-L23)/L23</f>
-        <v>-4.268426746591903E-2</v>
-      </c>
-      <c r="M28" s="5">
-        <f>(N23-M23)/M23</f>
-        <v>-2.7937781674528504E-2</v>
-      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5">
-        <f>(N23-O23)/O23</f>
-        <v>4.4820192083057193E-3</v>
+        <f>(O23-N23)/N23</f>
+        <v>-4.4620203474008179E-3</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S28" s="5">
-        <f>($S$24-S6)/S6</f>
-        <v>-1.2152187051797296E-3</v>
-      </c>
-      <c r="T28" s="5">
-        <f>($S$24-T6)/T6</f>
-        <v>1.7219967691875039E-2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
       <c r="U28" s="5">
-        <f>($S$24-U6)/U6</f>
-        <v>1.7868087088026674E-2</v>
+        <f>(U24-T24)/T24</f>
+        <v>1.932729200082866E-4</v>
       </c>
       <c r="V28" s="5">
-        <f>($S$24-V6)/V6</f>
-        <v>1.7922918040128927E-2</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <f>(V24-T24)/T24</f>
+        <v>2.3957504817801872E-3</v>
+      </c>
+      <c r="X28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5">
+        <f>(AB23-AA23)/AA23</f>
+        <v>-1.034840298330332E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29">
         <v>1000</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="5">
-        <f>(O23-L23)/L23</f>
-        <v>-4.695582974337302E-2</v>
-      </c>
-      <c r="M29" s="5">
-        <f>(O23-M23)/M23</f>
-        <v>-3.2275143071636335E-2</v>
-      </c>
-      <c r="N29" s="5">
-        <f>(O23-N23)/N23</f>
-        <v>-4.4620203474008179E-3</v>
-      </c>
-      <c r="O29" s="4"/>
+      <c r="K29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
       <c r="R29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S29" s="5">
-        <f>($T$24-L6)/L6</f>
-        <v>5.3773428909543218E-3</v>
-      </c>
-      <c r="T29" s="5">
-        <f>($T$24-M6)/M6</f>
-        <v>3.6912880641020052E-2</v>
-      </c>
-      <c r="U29" s="5">
-        <f>($T$24-N6)/N6</f>
-        <v>3.7295627152224099E-2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="V29" s="5">
-        <f>($T$24-O6)/O6</f>
-        <v>3.7317075836198567E-2</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="5">
-        <f>(Y22-Z22)/Z22</f>
-        <v>1.6044096897499461E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>(V24-U24)/U24</f>
+        <v>2.2020519647586614E-3</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5">
+        <f>(M22-L22)/L22</f>
+        <v>-3.564214490872606E-2</v>
+      </c>
+      <c r="N30" s="5">
+        <f>(N22-L22)/L22</f>
+        <v>-6.8107426678283789E-2</v>
+      </c>
+      <c r="O30" s="5">
+        <f>(O22-L22)/L22</f>
+        <v>-7.4659351093361886E-2</v>
+      </c>
+      <c r="R30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="R30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S30" s="5">
-        <f>($T$24-S6)/S6</f>
-        <v>1.3612708154603066E-2</v>
-      </c>
-      <c r="T30" s="5">
-        <f>($T$24-T6)/T6</f>
-        <v>3.23215827382035E-2</v>
-      </c>
-      <c r="U30" s="5">
-        <f>($T$24-U6)/U6</f>
-        <v>3.2979324094143198E-2</v>
-      </c>
-      <c r="V30" s="5">
-        <f>($T$24-V6)/V6</f>
-        <v>3.3034969064803452E-2</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y30" s="5">
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="X30" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="5">
         <f>(Z22-Y22)/Y22</f>
-        <v>-1.5790748596926321E-2</v>
-      </c>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-2.1736721758590771E-3</v>
+      </c>
+      <c r="AA30" s="5">
+        <f>(AA22-Y22)/Y22</f>
+        <v>-2.8181051554902609E-3</v>
+      </c>
+      <c r="AB30" s="5">
+        <f>(AB22-Y22)/Y22</f>
+        <v>-5.6827512237483495E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -25734,42 +24113,49 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5">
+        <f>(N22-M22)/M22</f>
+        <v>-3.3665181030215152E-2</v>
+      </c>
+      <c r="O31" s="5">
+        <f>(O22-M22)/M22</f>
+        <v>-4.0459261029136266E-2</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5">
-        <f>(L22-M22)/M22</f>
-        <v>3.6959459313319565E-2</v>
-      </c>
-      <c r="N31" s="5">
-        <f>(L22-N22)/N22</f>
-        <v>7.3085062192861941E-2</v>
-      </c>
-      <c r="O31" s="5">
-        <f>(L22-O22)/O22</f>
-        <v>8.0683098901553396E-2</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="S31" s="5">
-        <f>($U$24-L6)/L6</f>
-        <v>5.5716551057250294E-3</v>
-      </c>
+      <c r="S31" s="4"/>
       <c r="T31" s="5">
-        <f>($U$24-M6)/M6</f>
-        <v>3.7113287821255746E-2</v>
+        <f>(T23-S23)/S23</f>
+        <v>3.4198294792546387E-3</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" ref="U31:V31" si="0">($U$24-N6)/N6</f>
-        <v>3.7496108306995637E-2</v>
+        <f>(U23-S23)/S23</f>
+        <v>3.2013529323063482E-3</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="0"/>
-        <v>3.7517561136419887E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <f>(V23-S23)/S23</f>
+        <v>6.3331603782742496E-3</v>
+      </c>
+      <c r="X31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="5">
+        <f>(AA22-Z22)/Z22</f>
+        <v>-6.458368171507699E-4</v>
+      </c>
+      <c r="AB31" s="5">
+        <f>(AB22-Z22)/Z22</f>
+        <v>-3.5167232513709738E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -25777,39 +24163,37 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5">
+        <f>(O22-N22)/N22</f>
+        <v>-7.0307722184370074E-3</v>
+      </c>
+      <c r="R32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="5">
-        <f>(M22-L22)/L22</f>
-        <v>-3.564214490872606E-2</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5">
-        <f>(M22-N22)/N22</f>
-        <v>3.4838008906794636E-2</v>
-      </c>
-      <c r="O32" s="5">
-        <f>(M22-O22)/O22</f>
-        <v>4.2165235290093091E-2</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S32" s="5">
-        <f>($U$24-S6)/S6</f>
-        <v>1.3808612042465614E-2</v>
-      </c>
-      <c r="T32" s="5">
-        <f>($U$24-T6)/T6</f>
-        <v>3.2521102544886889E-2</v>
-      </c>
+      <c r="S32" s="5"/>
+      <c r="T32" s="4"/>
       <c r="U32" s="5">
-        <f>($U$24-U6)/U6</f>
-        <v>3.3178971024419059E-2</v>
+        <f>(U23-T23)/T23</f>
+        <v>-2.1773194083843578E-4</v>
       </c>
       <c r="V32" s="5">
-        <f>($U$24-V6)/V6</f>
-        <v>3.3234626749745276E-2</v>
+        <f>(V23-T23)/T23</f>
+        <v>2.9034017600903343E-3</v>
+      </c>
+      <c r="X32" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="5">
+        <f>(AB22-AA22)/AA22</f>
+        <v>-2.8727417566127909E-3</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -25819,40 +24203,20 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="R33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="5">
-        <f>(N22-L22)/L22</f>
-        <v>-6.8107426678283789E-2</v>
-      </c>
-      <c r="M33" s="5">
-        <f>(N22-M22)/M22</f>
-        <v>-3.3665181030215152E-2</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5">
-        <f>(N22-O22)/O22</f>
-        <v>7.0805539806553432E-3</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="S33" s="5">
-        <f>($V$24-L6)/L6</f>
-        <v>7.7859761445562108E-3</v>
-      </c>
-      <c r="T33" s="5">
-        <f t="shared" ref="T33:V33" si="1">($V$24-M6)/M6</f>
-        <v>3.9397065174379853E-2</v>
-      </c>
-      <c r="U33" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9780728650722526E-2</v>
-      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="4"/>
       <c r="V33" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9802228720391956E-2</v>
+        <f>(V23-U23)/U23</f>
+        <v>3.1218134194235169E-3</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -25862,41 +24226,16 @@
       <c r="B34">
         <v>1000</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="5">
-        <f>(O22-L22)/L22</f>
-        <v>-7.4659351093361886E-2</v>
-      </c>
-      <c r="M34" s="5">
-        <f>(O22-M22)/M22</f>
-        <v>-4.0459261029136266E-2</v>
-      </c>
-      <c r="N34" s="5">
-        <f>(O22-N22)/N22</f>
-        <v>-7.0307722184370074E-3</v>
-      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="4"/>
-      <c r="R34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S34" s="5">
-        <f>($V$24-S6)/S6</f>
-        <v>1.6041071288502975E-2</v>
-      </c>
-      <c r="T34" s="5">
-        <f t="shared" ref="T34:V34" si="2">($V$24-T6)/T6</f>
-        <v>3.4794767667400639E-2</v>
-      </c>
-      <c r="U34" s="5">
-        <f t="shared" si="2"/>
-        <v>3.5454084807510715E-2</v>
-      </c>
-      <c r="V34" s="5">
-        <f t="shared" si="2"/>
-        <v>3.5509863089636232E-2</v>
-      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -25905,13 +24244,6 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="R35" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -25920,25 +24252,6 @@
       <c r="B36">
         <v>3000</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S36" s="5">
-        <f>($S$23-L5)/L5</f>
-        <v>-9.5288746013062944E-3</v>
-      </c>
-      <c r="T36" s="5">
-        <f t="shared" ref="T36:V36" si="3">($S$23-M5)/M5</f>
-        <v>-6.6420607665871653E-3</v>
-      </c>
-      <c r="U36" s="5">
-        <f t="shared" si="3"/>
-        <v>-5.7328376799518693E-3</v>
-      </c>
-      <c r="V36" s="5">
-        <f t="shared" si="3"/>
-        <v>-5.6827512237483495E-3</v>
-      </c>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -25947,181 +24260,77 @@
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S37" s="5">
-        <f>($S$23-S5)/S5</f>
-        <v>-3.5167232513709738E-3</v>
-      </c>
-      <c r="T37" s="5">
-        <f>($S$23-T5)/T5</f>
-        <v>-1.06057582085E-2</v>
-      </c>
-      <c r="U37" s="5">
-        <f t="shared" ref="U37:V37" si="4">($S$23-U5)/U5</f>
-        <v>-8.7195415801523055E-3</v>
-      </c>
-      <c r="V37" s="5">
-        <f t="shared" si="4"/>
-        <v>-8.5565751340018325E-3</v>
-      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="R38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S38" s="5">
-        <f>($T$23-L5)/L5</f>
-        <v>-6.1416322483173243E-3</v>
-      </c>
-      <c r="T38" s="5">
-        <f t="shared" ref="T38:V38" si="5">($T$23-M5)/M5</f>
-        <v>-3.244946002545102E-3</v>
-      </c>
-      <c r="U38" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.332613527994912E-3</v>
-      </c>
-      <c r="V38" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.2823557846519556E-3</v>
-      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="R39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S39" s="5">
-        <f>($T$23-S5)/S5</f>
-        <v>-1.0892036596175415E-4</v>
-      </c>
-      <c r="T39" s="5">
-        <f t="shared" ref="T39:V39" si="6">($T$23-T5)/T5</f>
-        <v>-7.2221986138166373E-3</v>
-      </c>
-      <c r="U39" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.3295314462390581E-3</v>
-      </c>
-      <c r="V39" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.1660076826319104E-3</v>
-      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="S40" s="5">
-        <f>($U$23-L5)/L5</f>
-        <v>-6.358026959646418E-3</v>
-      </c>
-      <c r="T40" s="5">
-        <f>($U$23-M5)/M5</f>
-        <v>-3.4619714149924877E-3</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" ref="U40:V40" si="7">($U$23-N5)/N5</f>
-        <v>-2.5498375843626712E-3</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.4995907837357155E-3</v>
-      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="R41" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S41" s="5">
-        <f>($U$23-S5)/S5</f>
-        <v>-3.2662859135751225E-4</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" ref="T41:V41" si="8">($U$23-T5)/T5</f>
-        <v>-7.4383580513337662E-3</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.5461029778519451E-3</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.38261481859122E-3</v>
-      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="R42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="S42" s="5">
-        <f>($V$23-L5)/L5</f>
-        <v>-3.2560621141065819E-3</v>
-      </c>
-      <c r="T42" s="5">
-        <f t="shared" ref="T42:V42" si="9">($V$23-M5)/M5</f>
-        <v>-3.5096562438995517E-4</v>
-      </c>
-      <c r="U42" s="5">
-        <f t="shared" si="9"/>
-        <v>5.6401571787263163E-4</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="9"/>
-        <v>6.1441937963606786E-4</v>
-      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R43" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S43" s="5">
-        <f>($V$23-S5)/S5</f>
-        <v>2.7941651545463375E-3</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" ref="T43:V43" si="10">($V$23-T5)/T5</f>
-        <v>-4.3397657978933796E-3</v>
-      </c>
-      <c r="U43" s="5">
-        <f t="shared" si="10"/>
-        <v>-2.441603457130191E-3</v>
-      </c>
-      <c r="V43" s="5">
-        <f t="shared" si="10"/>
-        <v>-2.2776049183399695E-3</v>
-      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
     </row>
     <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="X28:Z28"/>
+  <mergeCells count="14">
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="X8:Z8"/>
     <mergeCell ref="K25:O25"/>
-    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="K29:O29"/>
     <mergeCell ref="R26:V26"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="X25:AB25"/>
+    <mergeCell ref="X29:AB29"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AB10:AD10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27202,13 +25411,13 @@
       <c r="J34">
         <v>296.52482877562659</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -27401,13 +25610,13 @@
       <c r="F39">
         <v>755.99332939270596</v>
       </c>
-      <c r="N39" s="10" t="s">
+      <c r="N39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C40">
@@ -28633,13 +26842,13 @@
       <c r="J35">
         <v>-652.59150370875227</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -28810,13 +27019,13 @@
       <c r="F40">
         <v>730.98243670120416</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -30108,13 +28317,13 @@
       <c r="F38">
         <v>661.88229640603311</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -30237,13 +28446,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="4" t="s">
@@ -31477,13 +29686,13 @@
       <c r="J36">
         <v>2516.7070889100542</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -31636,13 +29845,13 @@
       <c r="F41">
         <v>811.97969712959537</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -31760,30 +29969,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="11">
+      <c r="C1" s="14">
         <v>0.1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14">
         <v>0.15</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14">
         <v>0.5</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -31792,7 +30001,7 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>51</v>
@@ -31801,7 +30010,7 @@
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
@@ -31810,7 +30019,7 @@
         <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M2" t="s">
         <v>51</v>
@@ -32230,7 +30439,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -33811,7 +32020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -33825,10 +32034,10 @@
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -34049,10 +32258,10 @@
         <v>812.25459999999998</v>
       </c>
       <c r="I23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -34162,11 +32371,11 @@
       <c r="D28">
         <v>890.87120000000004</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -34182,7 +32391,7 @@
         <v>878.75450000000001</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
@@ -34204,7 +32413,7 @@
         <v>847.20479999999998</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I30" s="5">
         <f>(J26-I26)/I26</f>
@@ -34225,11 +32434,11 @@
       <c r="D31">
         <v>847.20489999999995</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -34245,7 +32454,7 @@
         <v>821.02499999999998</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="5">
@@ -34267,7 +32476,7 @@
         <v>814.29639999999995</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I33" s="5">
         <f>(J25-I25)/I25</f>
@@ -34420,7 +32629,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.28515625" style="12" customWidth="1"/>
+    <col min="3" max="10" width="8.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -34430,29 +32639,29 @@
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -35162,66 +33371,66 @@
       </c>
     </row>
     <row r="64" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="15"/>
+      <c r="B64" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="11"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="12">
+      <c r="C65" s="9">
         <v>2</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="9">
         <v>3</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="9">
         <v>4</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="9">
         <v>5</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="9">
         <v>6</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="9">
         <v>7</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="9">
         <v>8</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="9">
         <v>9</v>
       </c>
-      <c r="K65" s="12"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="12">
+        <v>117</v>
+      </c>
+      <c r="C66" s="9">
         <v>18</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="9">
         <v>12</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="9">
         <v>9</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="9">
         <v>7</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="9">
         <v>6</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="9">
         <v>5</v>
       </c>
       <c r="I66">
@@ -35233,27 +33442,27 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="14">
+        <v>115</v>
+      </c>
+      <c r="C67" s="10">
         <v>1.6363635999999999</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="10">
         <v>1.3333333000000001</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="10">
         <v>1.2857143</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="10">
         <v>1.4</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="10">
         <v>1.2</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="10">
         <v>1.25</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="10">
         <v>1</v>
       </c>
       <c r="J67" s="2">
@@ -35263,24 +33472,24 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="14">
+        <v>118</v>
+      </c>
+      <c r="C68" s="10">
         <v>0.60410540000000001</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="10">
         <v>0.55920250000000005</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="10">
         <v>0.67243759999999997</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="10">
         <v>0.40601870000000001</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="10">
         <v>0.71037539999999999</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="10">
         <v>0.39314739999999998</v>
       </c>
       <c r="I68" s="2">
@@ -35293,33 +33502,33 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="H69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="I69" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K69" s="12"/>
+      <c r="K69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bip8013_data.xlsx
+++ b/bip8013_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4974,6 +4974,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Croston's and Exponential Smoothing forecasts of item BIP008013, alpha = 0.1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5049,115 +5080,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'0.1'!$A$2:$A$42</c:f>
+              <c:f>'0.1'!$A$14:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>17-Dec</c:v>
+                  <c:v>18-Dec</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Jan</c:v>
+                  <c:v>19-Jan</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18-Feb</c:v>
+                  <c:v>19-Feb</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18-Mar</c:v>
+                  <c:v>19-Mar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18-Apr</c:v>
+                  <c:v>19-Apr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18-May</c:v>
+                  <c:v>19-May</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18-Jun</c:v>
+                  <c:v>19-Jun</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18-Jul</c:v>
+                  <c:v>19-Jul</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18-Aug</c:v>
+                  <c:v>19-Aug</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18-Sep</c:v>
+                  <c:v>19-Sep</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18-Oct</c:v>
+                  <c:v>19-Oct</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Nov</c:v>
+                  <c:v>19-Nov</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18-Dec</c:v>
+                  <c:v>19-Dec</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19-Jan</c:v>
+                  <c:v>20-Jan</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19-Feb</c:v>
+                  <c:v>20-Feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19-Mar</c:v>
+                  <c:v>20-Mar</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19-Apr</c:v>
+                  <c:v>20-Apr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-May</c:v>
+                  <c:v>20-May</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19-Jun</c:v>
+                  <c:v>20-Jun</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19-Jul</c:v>
+                  <c:v>20-Jul</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19-Aug</c:v>
+                  <c:v>20-Aug</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19-Sep</c:v>
+                  <c:v>20-Sep</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19-Oct</c:v>
+                  <c:v>20-Oct</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19-Nov</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19-Dec</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20-Jan</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20-Feb</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20-Apr</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20-May</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20-Jun</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20-Jul</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20-Aug</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20-Sep</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20-Oct</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>20-Nov</c:v>
                 </c:pt>
               </c:strCache>
@@ -5165,12 +5160,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.1'!$B$2:$B$42</c:f>
+              <c:f>'0.1'!$B$14:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5480</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5182,103 +5177,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5480</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2000</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1867.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5330,115 +5286,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'0.1'!$A$2:$A$42</c:f>
+              <c:f>'0.1'!$A$14:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>17-Dec</c:v>
+                  <c:v>18-Dec</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Jan</c:v>
+                  <c:v>19-Jan</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18-Feb</c:v>
+                  <c:v>19-Feb</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18-Mar</c:v>
+                  <c:v>19-Mar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18-Apr</c:v>
+                  <c:v>19-Apr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18-May</c:v>
+                  <c:v>19-May</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18-Jun</c:v>
+                  <c:v>19-Jun</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18-Jul</c:v>
+                  <c:v>19-Jul</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18-Aug</c:v>
+                  <c:v>19-Aug</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18-Sep</c:v>
+                  <c:v>19-Sep</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18-Oct</c:v>
+                  <c:v>19-Oct</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Nov</c:v>
+                  <c:v>19-Nov</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18-Dec</c:v>
+                  <c:v>19-Dec</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19-Jan</c:v>
+                  <c:v>20-Jan</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19-Feb</c:v>
+                  <c:v>20-Feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19-Mar</c:v>
+                  <c:v>20-Mar</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19-Apr</c:v>
+                  <c:v>20-Apr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-May</c:v>
+                  <c:v>20-May</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19-Jun</c:v>
+                  <c:v>20-Jun</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19-Jul</c:v>
+                  <c:v>20-Jul</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19-Aug</c:v>
+                  <c:v>20-Aug</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19-Sep</c:v>
+                  <c:v>20-Sep</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19-Oct</c:v>
+                  <c:v>20-Oct</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19-Nov</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19-Dec</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20-Jan</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20-Feb</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20-Apr</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20-May</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20-Jun</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20-Jul</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20-Aug</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20-Sep</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20-Oct</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>20-Nov</c:v>
                 </c:pt>
               </c:strCache>
@@ -5446,131 +5366,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.1'!$C$2:$C$42</c:f>
+              <c:f>'0.1'!$C$14:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>548.45000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>493.60500000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>444.24450000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>399.82005000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>511.83804500000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>760.75424050000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>784.77881645000014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1006.300934805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1205.6708413245001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1285.1037571920499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1356.5933814728451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>1220.9340433255611</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>548.45000000000005</c:v>
+                  <c:v>1098.8406389930051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>493.60500000000008</c:v>
+                  <c:v>1088.956575093704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>444.24450000000007</c:v>
+                  <c:v>1080.060917584334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>399.82005000000009</c:v>
+                  <c:v>1072.0548258259009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>511.83804500000008</c:v>
+                  <c:v>964.8493432433105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>760.75424050000015</c:v>
+                  <c:v>868.36440891897951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>784.77881645000014</c:v>
+                  <c:v>781.52796802708156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1006.300934805</c:v>
+                  <c:v>703.47517122437341</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1205.6708413245001</c:v>
+                  <c:v>733.12765410193606</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1285.1037571920499</c:v>
+                  <c:v>659.81488869174245</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1356.5933814728451</c:v>
+                  <c:v>893.83339982256825</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1220.9340433255611</c:v>
+                  <c:v>804.45010000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1098.8406389930051</c:v>
+                  <c:v>804.45010000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1088.956575093704</c:v>
+                  <c:v>804.45010000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1080.060917584334</c:v>
+                  <c:v>804.45010000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1072.0548258259009</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>964.8493432433105</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>868.36440891897951</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>781.52796802708156</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>703.47517122437341</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>733.12765410193606</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>659.81488869174245</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>893.83339982256825</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>804.45010000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>804.45010000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>804.45010000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>804.45010000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>804.45010000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -5623,115 +5507,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'0.1'!$A$2:$A$42</c:f>
+              <c:f>'0.1'!$A$14:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>17-Dec</c:v>
+                  <c:v>18-Dec</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Jan</c:v>
+                  <c:v>19-Jan</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18-Feb</c:v>
+                  <c:v>19-Feb</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18-Mar</c:v>
+                  <c:v>19-Mar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18-Apr</c:v>
+                  <c:v>19-Apr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18-May</c:v>
+                  <c:v>19-May</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18-Jun</c:v>
+                  <c:v>19-Jun</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18-Jul</c:v>
+                  <c:v>19-Jul</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18-Aug</c:v>
+                  <c:v>19-Aug</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18-Sep</c:v>
+                  <c:v>19-Sep</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18-Oct</c:v>
+                  <c:v>19-Oct</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Nov</c:v>
+                  <c:v>19-Nov</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18-Dec</c:v>
+                  <c:v>19-Dec</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19-Jan</c:v>
+                  <c:v>20-Jan</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19-Feb</c:v>
+                  <c:v>20-Feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19-Mar</c:v>
+                  <c:v>20-Mar</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19-Apr</c:v>
+                  <c:v>20-Apr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-May</c:v>
+                  <c:v>20-May</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19-Jun</c:v>
+                  <c:v>20-Jun</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19-Jul</c:v>
+                  <c:v>20-Jul</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19-Aug</c:v>
+                  <c:v>20-Aug</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19-Sep</c:v>
+                  <c:v>20-Sep</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19-Oct</c:v>
+                  <c:v>20-Oct</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19-Nov</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19-Dec</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20-Jan</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20-Feb</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20-Apr</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20-May</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20-Jun</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20-Jul</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20-Aug</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20-Sep</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20-Oct</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>20-Nov</c:v>
                 </c:pt>
               </c:strCache>
@@ -5739,95 +5587,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.1'!$D$2:$D$42</c:f>
+              <c:f>'0.1'!$D$14:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>421.92195390909211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557.14954360648824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>557.14954360648824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>557.14954360648824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>557.14954360648824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>538.33575499147412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>608.90447500246023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>621.00333120821699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>699.86452308823561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>781.57391099561971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>827.84001426797727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>875.29269372854833</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>421.92195390909211</c:v>
+                  <c:v>875.29269372854833</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>557.14954360648824</c:v>
+                  <c:v>875.29269372854833</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>557.14954360648824</c:v>
+                  <c:v>810.85425648992452</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>557.14954360648824</c:v>
+                  <c:v>818.83228036282014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>557.14954360648824</c:v>
+                  <c:v>826.94275080305295</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>538.33575499147412</c:v>
+                  <c:v>826.94275080305295</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>608.90447500246023</c:v>
+                  <c:v>826.94275080305295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>621.00333120821699</c:v>
+                  <c:v>826.94275080305295</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>699.86452308823561</c:v>
+                  <c:v>689.75373700768</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>781.57391099561971</c:v>
+                  <c:v>703.42495802826033</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>827.84001426797727</c:v>
+                  <c:v>703.42495802826033</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>875.29269372854833</c:v>
+                  <c:v>774.47146486779161</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>875.29269372854833</c:v>
+                  <c:v>774.47149999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>875.29269372854833</c:v>
+                  <c:v>774.47149999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>810.85425648992452</c:v>
+                  <c:v>774.47149999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>818.83228036282014</c:v>
+                  <c:v>774.47149999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>826.94275080305295</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>826.94275080305295</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>826.94275080305295</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>826.94275080305295</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>689.75373700768</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>703.42495802826033</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>703.42495802826033</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>774.47146486779161</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>774.47149999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>774.47149999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>774.47149999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>774.47149999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>774.47149999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5880,115 +5728,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'0.1'!$A$2:$A$42</c:f>
+              <c:f>'0.1'!$A$14:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>17-Dec</c:v>
+                  <c:v>18-Dec</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Jan</c:v>
+                  <c:v>19-Jan</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18-Feb</c:v>
+                  <c:v>19-Feb</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18-Mar</c:v>
+                  <c:v>19-Mar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18-Apr</c:v>
+                  <c:v>19-Apr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18-May</c:v>
+                  <c:v>19-May</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18-Jun</c:v>
+                  <c:v>19-Jun</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18-Jul</c:v>
+                  <c:v>19-Jul</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18-Aug</c:v>
+                  <c:v>19-Aug</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18-Sep</c:v>
+                  <c:v>19-Sep</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18-Oct</c:v>
+                  <c:v>19-Oct</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Nov</c:v>
+                  <c:v>19-Nov</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18-Dec</c:v>
+                  <c:v>19-Dec</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19-Jan</c:v>
+                  <c:v>20-Jan</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19-Feb</c:v>
+                  <c:v>20-Feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19-Mar</c:v>
+                  <c:v>20-Mar</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19-Apr</c:v>
+                  <c:v>20-Apr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-May</c:v>
+                  <c:v>20-May</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19-Jun</c:v>
+                  <c:v>20-Jun</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19-Jul</c:v>
+                  <c:v>20-Jul</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19-Aug</c:v>
+                  <c:v>20-Aug</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19-Sep</c:v>
+                  <c:v>20-Sep</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19-Oct</c:v>
+                  <c:v>20-Oct</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19-Nov</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19-Dec</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20-Jan</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20-Feb</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20-Apr</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20-May</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20-Jun</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20-Jul</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20-Aug</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20-Sep</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20-Oct</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>20-Nov</c:v>
                 </c:pt>
               </c:strCache>
@@ -5996,95 +5808,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.1'!$E$2:$E$42</c:f>
+              <c:f>'0.1'!$E$14:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>421.91850799434349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562.16245604034521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>562.16245604034521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>562.16245604034521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>562.16245604034521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>538.97457768610138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>610.70559409713644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>622.04402670632976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>701.59326497167422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>783.57308512940529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>828.98236036947458</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>875.29204982069723</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>421.91850799434349</c:v>
+                  <c:v>875.29204982069723</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>562.16245604034521</c:v>
+                  <c:v>875.29204982069723</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>562.16245604034521</c:v>
+                  <c:v>804.92014082202627</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>562.16245604034521</c:v>
+                  <c:v>811.38736224988634</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>562.16245604034521</c:v>
+                  <c:v>817.9288431540798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>538.97457768610138</c:v>
+                  <c:v>817.9288431540798</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>610.70559409713644</c:v>
+                  <c:v>817.9288431540798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>622.04402670632976</c:v>
+                  <c:v>817.9288431540798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>701.59326497167422</c:v>
+                  <c:v>676.15815438302445</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>783.57308512940529</c:v>
+                  <c:v>688.74063902231194</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>828.98236036947458</c:v>
+                  <c:v>688.74063902231194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>875.29204982069723</c:v>
+                  <c:v>756.95271758621516</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>875.29204982069723</c:v>
+                  <c:v>756.95271758621516</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>875.29204982069723</c:v>
+                  <c:v>756.95271758621516</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>804.92014082202627</c:v>
+                  <c:v>756.95271758621516</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>811.38736224988634</c:v>
+                  <c:v>756.95271758621516</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>817.9288431540798</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>817.9288431540798</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>817.9288431540798</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>817.9288431540798</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>676.15815438302445</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>688.74063902231194</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>688.74063902231194</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>756.95271758621516</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>756.95271758621516</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>756.95271758621516</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>756.95271758621516</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>756.95271758621516</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>756.95271758621516</c:v>
                 </c:pt>
               </c:numCache>
@@ -6137,115 +5949,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'0.1'!$A$2:$A$42</c:f>
+              <c:f>'0.1'!$A$14:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>17-Dec</c:v>
+                  <c:v>18-Dec</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Jan</c:v>
+                  <c:v>19-Jan</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18-Feb</c:v>
+                  <c:v>19-Feb</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18-Mar</c:v>
+                  <c:v>19-Mar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18-Apr</c:v>
+                  <c:v>19-Apr</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18-May</c:v>
+                  <c:v>19-May</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18-Jun</c:v>
+                  <c:v>19-Jun</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18-Jul</c:v>
+                  <c:v>19-Jul</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18-Aug</c:v>
+                  <c:v>19-Aug</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18-Sep</c:v>
+                  <c:v>19-Sep</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18-Oct</c:v>
+                  <c:v>19-Oct</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Nov</c:v>
+                  <c:v>19-Nov</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18-Dec</c:v>
+                  <c:v>19-Dec</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19-Jan</c:v>
+                  <c:v>20-Jan</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19-Feb</c:v>
+                  <c:v>20-Feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19-Mar</c:v>
+                  <c:v>20-Mar</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19-Apr</c:v>
+                  <c:v>20-Apr</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-May</c:v>
+                  <c:v>20-May</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19-Jun</c:v>
+                  <c:v>20-Jun</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19-Jul</c:v>
+                  <c:v>20-Jul</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19-Aug</c:v>
+                  <c:v>20-Aug</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19-Sep</c:v>
+                  <c:v>20-Sep</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19-Oct</c:v>
+                  <c:v>20-Oct</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19-Nov</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19-Dec</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20-Jan</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20-Feb</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20-Apr</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20-May</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20-Jun</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20-Jul</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20-Aug</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20-Sep</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20-Oct</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>20-Nov</c:v>
                 </c:pt>
               </c:strCache>
@@ -6253,95 +6029,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.1'!$F$2:$F$42</c:f>
+              <c:f>'0.1'!$F$14:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>421.92280809939558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562.45612196622142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>562.45612196622142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>562.45612196622142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>562.45612196622142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>539.01401076539366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>610.8107242014878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>622.10530749110842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>701.69281006389463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>783.68699065943997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>829.04707438582773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>875.29173924542749</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>421.92280809939558</c:v>
+                  <c:v>875.29173924542749</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>562.45612196622142</c:v>
+                  <c:v>875.29173924542749</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>562.45612196622142</c:v>
+                  <c:v>804.58841372320433</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>562.45612196622142</c:v>
+                  <c:v>810.97217510264068</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>562.45612196622142</c:v>
+                  <c:v>817.42742312666576</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>539.01401076539366</c:v>
+                  <c:v>817.42742312666576</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>610.8107242014878</c:v>
+                  <c:v>817.42742312666576</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>622.10530749110842</c:v>
+                  <c:v>817.42742312666576</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>701.69281006389463</c:v>
+                  <c:v>675.40958448028948</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>783.68699065943997</c:v>
+                  <c:v>687.93364717595739</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>829.04707438582773</c:v>
+                  <c:v>687.93364717595739</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>875.29173924542749</c:v>
+                  <c:v>755.99332939270596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>875.29173924542749</c:v>
+                  <c:v>755.99332939270596</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>875.29173924542749</c:v>
+                  <c:v>755.99332939270596</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>804.58841372320433</c:v>
+                  <c:v>755.99332939270596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>810.97217510264068</c:v>
+                  <c:v>755.99332939270596</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>817.42742312666576</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>817.42742312666576</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>817.42742312666576</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>817.42742312666576</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>675.40958448028948</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>687.93364717595739</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>687.93364717595739</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>755.99332939270596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>755.99332939270596</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>755.99332939270596</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>755.99332939270596</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>755.99332939270596</c:v>
-                </c:pt>
-                <c:pt idx="40">
                   <c:v>755.99332939270596</c:v>
                 </c:pt>
               </c:numCache>
@@ -6484,6 +6260,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6565,6 +6342,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8072,6 +7850,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8153,7 +7932,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9661,7 +9439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9743,7 +9520,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11251,7 +11027,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11333,7 +11108,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12157,7 +11931,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22913,7 +22686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="AB3" sqref="AB3:AD11"/>
     </sheetView>
   </sheetViews>
@@ -23235,30 +23008,30 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="R8" s="12" t="s">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="R8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="X8" s="12" t="s">
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="X8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AB8" s="12" t="s">
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AB8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -23349,16 +23122,16 @@
         <f>(V6-T6)/T6</f>
         <v>-6.9057326030867088E-4</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="X10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AB10" s="13" t="s">
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AB10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -23411,20 +23184,20 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="R12" s="13" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="R12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -23854,13 +23627,13 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
       <c r="R25" t="s">
         <v>58</v>
       </c>
@@ -23880,13 +23653,13 @@
         <f>V24-V23</f>
         <v>565.75020000000006</v>
       </c>
-      <c r="X25" s="12" t="s">
+      <c r="X25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -23911,13 +23684,13 @@
         <f>(O23-L23)/L23</f>
         <v>-4.695582974337302E-2</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
       <c r="X26" t="s">
         <v>100</v>
       </c>
@@ -24033,13 +23806,13 @@
       <c r="B29">
         <v>1000</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
       <c r="R29" s="4" t="s">
         <v>51</v>
       </c>
@@ -24050,13 +23823,13 @@
         <f>(V24-U24)/U24</f>
         <v>2.2020519647586614E-3</v>
       </c>
-      <c r="X29" s="13" t="s">
+      <c r="X29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
     </row>
     <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -24081,13 +23854,13 @@
         <f>(O22-L22)/L22</f>
         <v>-7.4659351093361886E-2</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
       <c r="X30" t="s">
         <v>100</v>
       </c>
@@ -24317,11 +24090,6 @@
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="K12:O12"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="K29:O29"/>
@@ -24331,6 +24099,11 @@
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24342,8 +24115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25411,13 +25184,13 @@
       <c r="J34">
         <v>296.52482877562659</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -25594,10 +25367,6 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <f>SUM(B13:B37)/15</f>
-        <v>1867.2</v>
-      </c>
       <c r="C39">
         <v>804.45010000000002</v>
       </c>
@@ -25610,13 +25379,13 @@
       <c r="F39">
         <v>755.99332939270596</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C40">
@@ -26842,13 +26611,13 @@
       <c r="J35">
         <v>-652.59150370875227</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="M35" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -27019,13 +26788,13 @@
       <c r="F40">
         <v>730.98243670120416</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -28317,13 +28086,13 @@
       <c r="F38">
         <v>661.88229640603311</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -28446,13 +28215,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="4" t="s">
@@ -29686,13 +29455,13 @@
       <c r="J36">
         <v>2516.7070889100542</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -29845,13 +29614,13 @@
       <c r="F41">
         <v>811.97969712959537</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -32371,11 +32140,11 @@
       <c r="D28">
         <v>890.87120000000004</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -32434,11 +32203,11 @@
       <c r="D31">
         <v>847.20489999999995</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">

--- a/bip8013_data.xlsx
+++ b/bip8013_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -551,7 +551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1209,7 +1208,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5162,7 +5160,7 @@
             <c:numRef>
               <c:f>'0.1'!$B$14:$B$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>5480</c:v>
@@ -5368,7 +5366,7 @@
             <c:numRef>
               <c:f>'0.1'!$C$14:$C$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
@@ -5589,7 +5587,7 @@
             <c:numRef>
               <c:f>'0.1'!$D$14:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>421.92195390909211</c:v>
@@ -5810,7 +5808,7 @@
             <c:numRef>
               <c:f>'0.1'!$E$14:$E$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>421.91850799434349</c:v>
@@ -6031,7 +6029,7 @@
             <c:numRef>
               <c:f>'0.1'!$F$14:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>421.92280809939558</c:v>
@@ -6215,7 +6213,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6852,91 +6850,91 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>822.63750000000005</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>699.24187500000005</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>594.35559375000003</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>505.20225468749999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>657.42191648437506</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>1008.958629011719</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>1007.764834659961</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>1306.6001094609669</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>1560.610093041822</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>1626.5185790855489</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>1682.5407922227159</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>1430.1596733893091</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>1215.6357223809121</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>1183.290364023776</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>1155.796809420209</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>1132.427288007178</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>962.56319480610114</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>818.17871558518596</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>695.45190824740803</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>591.28412201029676</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>652.59150370875227</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>554.70277815243946</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>921.49736142957352</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>783.27279999999996</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>783.27279999999996</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>783.27279999999996</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>783.27279999999996</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>783.27279999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -7109,91 +7107,91 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>421.92154306073718</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>529.97103009856551</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>529.97103009856551</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>529.97103009856551</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>529.97103009856551</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>516.27214263329688</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>581.27974759871825</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>593.8129028334713</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>675.47413901672724</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>764.72226840579344</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>818.10781283980396</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>875.29249743959281</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>875.29249743959281</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>875.29249743959281</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>796.24279258799459</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>807.2670531596043</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>818.80088552942846</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>818.80088552942846</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>818.80088552942846</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>818.80088552942846</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>638.93608079795285</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>660.85442514606314</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>660.85442514606314</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>765.73341344859818</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>765.73341344859818</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>765.73341344859818</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>765.73341344859818</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>765.73341344859818</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>765.73341344859818</c:v>
                 </c:pt>
               </c:numCache>
@@ -7366,91 +7364,91 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>421.92228429803311</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>536.17089202098032</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>536.17089202098032</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>536.17089202098032</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>536.17089202098032</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>517.02104669896687</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>583.87668336314619</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>595.38585936260063</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>678.38186402691792</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>768.27895713196256</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>820.22468794096335</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>875.29155702596483</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>875.29155702596483</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>875.29155702596483</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>785.27620222632731</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>793.46582615948762</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>801.95085371689595</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>801.95085371689595</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>801.95085371689595</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>801.95085371689595</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>615.25073415178269</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>635.10628652299317</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>635.10628652299317</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>733.71547689804527</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>733.71547689804527</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>733.71547689804527</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>733.71547689804527</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>733.71547689804527</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>733.71547689804527</c:v>
                 </c:pt>
               </c:numCache>
@@ -7623,91 +7621,91 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>421.92203841959929</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>536.75643299766932</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0.00">
                   <c:v>536.75643299766932</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0.00">
                   <c:v>536.75643299766932</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="0.00">
                   <c:v>536.75643299766932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>517.09057370644939</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00">
                   <c:v>584.1173470268252</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="0.00">
                   <c:v>595.53098438612744</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="0.00">
                   <c:v>678.64903531827031</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0.00">
                   <c:v>768.60417825471768</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0.00">
                   <c:v>820.41727241494914</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0.00">
                   <c:v>875.29164420794586</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0.00">
                   <c:v>875.29164420794586</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0.00">
                   <c:v>875.29164420794586</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0.00">
                   <c:v>784.30140232534836</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0.00">
                   <c:v>792.24540500257729</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0.00">
                   <c:v>800.46885721361878</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0.00">
                   <c:v>800.46885721361878</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0.00">
                   <c:v>800.46885721361878</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0.00">
                   <c:v>800.46885721361878</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0.00">
                   <c:v>613.20552525315009</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0.00">
                   <c:v>632.89170316918546</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0.00">
                   <c:v>632.89170316918546</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0.00">
                   <c:v>730.98243670120416</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="0.00">
                   <c:v>730.98243670120416</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>730.98243670120416</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="0.00">
                   <c:v>730.98243670120416</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="0.00">
                   <c:v>730.98243670120416</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="0.00">
                   <c:v>730.98243670120416</c:v>
                 </c:pt>
               </c:numCache>
@@ -7932,6 +7930,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9439,6 +9438,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9520,6 +9520,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11027,6 +11028,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11108,6 +11110,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11931,6 +11934,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23008,30 +23012,30 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="R8" s="13" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="R8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="X8" s="13" t="s">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="X8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AB8" s="13" t="s">
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -23122,16 +23126,16 @@
         <f>(V6-T6)/T6</f>
         <v>-6.9057326030867088E-4</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="X10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AB10" s="12" t="s">
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AB10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -23184,20 +23188,20 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="R12" s="12" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="R12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -23627,13 +23631,13 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
       <c r="R25" t="s">
         <v>58</v>
       </c>
@@ -23653,13 +23657,13 @@
         <f>V24-V23</f>
         <v>565.75020000000006</v>
       </c>
-      <c r="X25" s="13" t="s">
+      <c r="X25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -23684,13 +23688,13 @@
         <f>(O23-L23)/L23</f>
         <v>-4.695582974337302E-2</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
       <c r="X26" t="s">
         <v>100</v>
       </c>
@@ -23806,13 +23810,13 @@
       <c r="B29">
         <v>1000</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
       <c r="R29" s="4" t="s">
         <v>51</v>
       </c>
@@ -23823,13 +23827,13 @@
         <f>(V24-U24)/U24</f>
         <v>2.2020519647586614E-3</v>
       </c>
-      <c r="X29" s="12" t="s">
+      <c r="X29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
     </row>
     <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -23854,13 +23858,13 @@
         <f>(O22-L22)/L22</f>
         <v>-7.4659351093361886E-2</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="R30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
       <c r="X30" t="s">
         <v>100</v>
       </c>
@@ -24090,6 +24094,11 @@
     <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="K12:O12"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="K25:O25"/>
     <mergeCell ref="K29:O29"/>
@@ -24099,11 +24108,6 @@
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="AB8:AD8"/>
     <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="R30:V30"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24115,17 +24119,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24165,12 +24170,15 @@
       <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -24188,12 +24196,15 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>0</v>
       </c>
@@ -24211,12 +24222,15 @@
       <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4">
         <v>0</v>
       </c>
@@ -24234,12 +24248,15 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5">
         <v>0</v>
       </c>
@@ -24257,12 +24274,15 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6">
         <v>0</v>
       </c>
@@ -24280,12 +24300,15 @@
       <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7">
         <v>0</v>
       </c>
@@ -24303,12 +24326,15 @@
       <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8">
         <v>0</v>
       </c>
@@ -24326,12 +24352,15 @@
       <c r="A9" t="s">
         <v>71</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9">
         <v>0</v>
       </c>
@@ -24349,12 +24378,15 @@
       <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10">
         <v>0</v>
       </c>
@@ -24372,12 +24404,15 @@
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11">
         <v>0</v>
       </c>
@@ -24395,12 +24430,15 @@
       <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12">
         <v>0</v>
       </c>
@@ -24418,12 +24456,15 @@
       <c r="A13" t="s">
         <v>75</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13">
         <v>0</v>
       </c>
@@ -24441,19 +24482,19 @@
       <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>5480</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>421.92195390909211</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>421.91850799434349</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>421.92280809939558</v>
       </c>
       <c r="G14">
@@ -24473,19 +24514,19 @@
       <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>548.45000000000005</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>557.14954360648824</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>562.16245604034521</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>562.45612196622142</v>
       </c>
       <c r="G15">
@@ -24505,19 +24546,19 @@
       <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>493.60500000000008</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>557.14954360648824</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>562.16245604034521</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>562.45612196622142</v>
       </c>
       <c r="G16">
@@ -24537,19 +24578,19 @@
       <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>444.24450000000007</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>557.14954360648824</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>562.16245604034521</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>562.45612196622142</v>
       </c>
       <c r="G17">
@@ -24569,19 +24610,19 @@
       <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1520</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>399.82005000000009</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>557.14954360648824</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>562.16245604034521</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>562.45612196622142</v>
       </c>
       <c r="G18">
@@ -24601,19 +24642,19 @@
       <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>3001</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>511.83804500000008</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>538.33575499147412</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>538.97457768610138</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>539.01401076539366</v>
       </c>
       <c r="G19">
@@ -24633,19 +24674,19 @@
       <c r="A20" t="s">
         <v>82</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>760.75424050000015</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>608.90447500246023</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>610.70559409713644</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>610.8107242014878</v>
       </c>
       <c r="G20">
@@ -24665,19 +24706,19 @@
       <c r="A21" t="s">
         <v>83</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>3000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>784.77881645000014</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>621.00333120821699</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>622.04402670632976</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>622.10530749110842</v>
       </c>
       <c r="G21">
@@ -24697,19 +24738,19 @@
       <c r="A22" t="s">
         <v>84</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>3000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1006.300934805</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>699.86452308823561</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>701.59326497167422</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>701.69281006389463</v>
       </c>
       <c r="G22">
@@ -24729,19 +24770,19 @@
       <c r="A23" t="s">
         <v>85</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>2000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1205.6708413245001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>781.57391099561971</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>783.57308512940529</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>783.68699065943997</v>
       </c>
       <c r="G23">
@@ -24761,19 +24802,19 @@
       <c r="A24" t="s">
         <v>86</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>2000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1285.1037571920499</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>827.84001426797727</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>828.98236036947458</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>829.04707438582773</v>
       </c>
       <c r="G24">
@@ -24793,19 +24834,19 @@
       <c r="A25" t="s">
         <v>87</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
         <v>1356.5933814728451</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>875.29269372854833</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>875.29204982069723</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>875.29173924542749</v>
       </c>
       <c r="G25">
@@ -24825,19 +24866,19 @@
       <c r="A26" t="s">
         <v>88</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
         <v>1220.9340433255611</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>875.29269372854833</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>875.29204982069723</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>875.29173924542749</v>
       </c>
       <c r="G26">
@@ -24857,19 +24898,19 @@
       <c r="A27" t="s">
         <v>89</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>1000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>1098.8406389930051</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>875.29269372854833</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>875.29204982069723</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>875.29173924542749</v>
       </c>
       <c r="G27">
@@ -24889,19 +24930,19 @@
       <c r="A28" t="s">
         <v>90</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>1000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>1088.956575093704</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>810.85425648992452</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>804.92014082202627</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>804.58841372320433</v>
       </c>
       <c r="G28">
@@ -24921,19 +24962,19 @@
       <c r="A29" t="s">
         <v>91</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>1000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>1080.060917584334</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>818.83228036282014</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>811.38736224988634</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>810.97217510264068</v>
       </c>
       <c r="G29">
@@ -24965,19 +25006,19 @@
       <c r="A30" t="s">
         <v>92</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
         <v>1072.0548258259009</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>826.94275080305295</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>817.9288431540798</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>817.42742312666576</v>
       </c>
       <c r="G30">
@@ -25012,19 +25053,19 @@
       <c r="A31" t="s">
         <v>93</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
         <v>964.8493432433105</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>826.94275080305295</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>817.9288431540798</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>817.42742312666576</v>
       </c>
       <c r="G31">
@@ -25059,19 +25100,19 @@
       <c r="A32" t="s">
         <v>94</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
         <v>868.36440891897951</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>826.94275080305295</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>817.9288431540798</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>817.42742312666576</v>
       </c>
       <c r="G32">
@@ -25106,19 +25147,19 @@
       <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>781.52796802708156</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>826.94275080305295</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>817.9288431540798</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>817.42742312666576</v>
       </c>
       <c r="G33">
@@ -25157,19 +25198,19 @@
       <c r="A34" t="s">
         <v>96</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>1000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>703.47517122437341</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>689.75373700768</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>676.15815438302445</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>675.40958448028948</v>
       </c>
       <c r="G34">
@@ -25184,31 +25225,31 @@
       <c r="J34">
         <v>296.52482877562659</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
         <v>733.12765410193606</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>703.42495802826033</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>688.74063902231194</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>687.93364717595739</v>
       </c>
       <c r="G35">
@@ -25244,19 +25285,19 @@
       <c r="A36" t="s">
         <v>98</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>3000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>659.81488869174245</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>703.42495802826033</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>688.74063902231194</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>687.93364717595739</v>
       </c>
       <c r="G36">
@@ -25292,19 +25333,19 @@
       <c r="A37" t="s">
         <v>99</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
         <v>893.83339982256825</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>774.47146486779161</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>756.95271758621516</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>755.99332939270596</v>
       </c>
       <c r="G37">
@@ -25337,16 +25378,17 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
         <v>804.45010000000002</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>774.47149999999999</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>756.95271758621516</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>755.99332939270596</v>
       </c>
       <c r="N38" s="4" t="s">
@@ -25367,37 +25409,39 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
         <v>804.45010000000002</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>774.47149999999999</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>756.95271758621516</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>755.99332939270596</v>
       </c>
-      <c r="N39" s="12" t="s">
+      <c r="N39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
         <v>804.45010000000002</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>774.47149999999999</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>756.95271758621516</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>755.99332939270596</v>
       </c>
       <c r="N40" s="4" t="s">
@@ -25418,16 +25462,17 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
         <v>804.45010000000002</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>774.47149999999999</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>756.95271758621516</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>755.99332939270596</v>
       </c>
       <c r="N41" s="4" t="s">
@@ -25448,16 +25493,17 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
         <v>804.45010000000002</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>774.47149999999999</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>756.95271758621516</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>755.99332939270596</v>
       </c>
       <c r="N42" s="4" t="s">
@@ -25509,8 +25555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25839,16 +25885,16 @@
       <c r="B14">
         <v>5480</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.75</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>421.92154306073718</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>421.92228429803311</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>421.92203841959929</v>
       </c>
       <c r="G14">
@@ -25871,16 +25917,16 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>822.63750000000005</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>529.97103009856551</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>536.17089202098032</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>536.75643299766932</v>
       </c>
       <c r="G15">
@@ -25903,16 +25949,16 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>699.24187500000005</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>529.97103009856551</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>536.17089202098032</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>536.75643299766932</v>
       </c>
       <c r="G16">
@@ -25935,16 +25981,16 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>594.35559375000003</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>529.97103009856551</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>536.17089202098032</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>536.75643299766932</v>
       </c>
       <c r="G17">
@@ -25967,16 +26013,16 @@
       <c r="B18">
         <v>1520</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>505.20225468749999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>529.97103009856551</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>536.17089202098032</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>536.75643299766932</v>
       </c>
       <c r="G18">
@@ -25999,16 +26045,16 @@
       <c r="B19">
         <v>3001</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>657.42191648437506</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>516.27214263329688</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>517.02104669896687</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>517.09057370644939</v>
       </c>
       <c r="G19">
@@ -26031,16 +26077,16 @@
       <c r="B20">
         <v>1001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1008.958629011719</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>581.27974759871825</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>583.87668336314619</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>584.1173470268252</v>
       </c>
       <c r="G20">
@@ -26063,16 +26109,16 @@
       <c r="B21">
         <v>3000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1007.764834659961</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>593.8129028334713</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>595.38585936260063</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>595.53098438612744</v>
       </c>
       <c r="G21">
@@ -26095,16 +26141,16 @@
       <c r="B22">
         <v>3000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1306.6001094609669</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>675.47413901672724</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>678.38186402691792</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>678.64903531827031</v>
       </c>
       <c r="G22">
@@ -26127,16 +26173,16 @@
       <c r="B23">
         <v>2000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1560.610093041822</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>764.72226840579344</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>768.27895713196256</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>768.60417825471768</v>
       </c>
       <c r="G23">
@@ -26159,16 +26205,16 @@
       <c r="B24">
         <v>2000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1626.5185790855489</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>818.10781283980396</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>820.22468794096335</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>820.41727241494914</v>
       </c>
       <c r="G24">
@@ -26191,16 +26237,16 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>1682.5407922227159</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>875.29249743959281</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>875.29155702596483</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>875.29164420794586</v>
       </c>
       <c r="G25">
@@ -26223,16 +26269,16 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>1430.1596733893091</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>875.29249743959281</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>875.29155702596483</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>875.29164420794586</v>
       </c>
       <c r="G26">
@@ -26255,16 +26301,16 @@
       <c r="B27">
         <v>1000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>1215.6357223809121</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>875.29249743959281</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>875.29155702596483</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>875.29164420794586</v>
       </c>
       <c r="G27">
@@ -26287,16 +26333,16 @@
       <c r="B28">
         <v>1000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>1183.290364023776</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>796.24279258799459</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>785.27620222632731</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>784.30140232534836</v>
       </c>
       <c r="G28">
@@ -26319,16 +26365,16 @@
       <c r="B29">
         <v>1000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>1155.796809420209</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>807.2670531596043</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>793.46582615948762</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>792.24540500257729</v>
       </c>
       <c r="G29">
@@ -26351,16 +26397,16 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>1132.427288007178</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>818.80088552942846</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>801.95085371689595</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>800.46885721361878</v>
       </c>
       <c r="G30">
@@ -26395,16 +26441,16 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>962.56319480610114</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>818.80088552942846</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>801.95085371689595</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>800.46885721361878</v>
       </c>
       <c r="G31">
@@ -26442,16 +26488,16 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>818.17871558518596</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>818.80088552942846</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>801.95085371689595</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>800.46885721361878</v>
       </c>
       <c r="G32">
@@ -26489,16 +26535,16 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>695.45190824740803</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>818.80088552942846</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>801.95085371689595</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>800.46885721361878</v>
       </c>
       <c r="G33">
@@ -26536,16 +26582,16 @@
       <c r="B34">
         <v>1000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>591.28412201029676</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>638.93608079795285</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>615.25073415178269</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>613.20552525315009</v>
       </c>
       <c r="G34">
@@ -26587,16 +26633,16 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>652.59150370875227</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>660.85442514606314</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>635.10628652299317</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>632.89170316918546</v>
       </c>
       <c r="G35">
@@ -26611,13 +26657,13 @@
       <c r="J35">
         <v>-652.59150370875227</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -26626,16 +26672,16 @@
       <c r="B36">
         <v>3000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>554.70277815243946</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>660.85442514606314</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>635.10628652299317</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>632.89170316918546</v>
       </c>
       <c r="G36">
@@ -26674,16 +26720,16 @@
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>921.49736142957352</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>765.73341344859818</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>733.71547689804527</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>730.98243670120416</v>
       </c>
       <c r="G37">
@@ -26716,16 +26762,16 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="C38" s="2">
         <v>783.27279999999996</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>765.73341344859818</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>733.71547689804527</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>730.98243670120416</v>
       </c>
       <c r="M38" s="4" t="s">
@@ -26746,16 +26792,16 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="C39" s="2">
         <v>783.27279999999996</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>765.73341344859818</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>733.71547689804527</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>730.98243670120416</v>
       </c>
       <c r="M39" s="4" t="s">
@@ -26776,37 +26822,37 @@
       <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="2">
         <v>783.27279999999996</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>765.73341344859818</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>733.71547689804527</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>730.98243670120416</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="M40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="C41" s="2">
         <v>783.27279999999996</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>765.73341344859818</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>733.71547689804527</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>730.98243670120416</v>
       </c>
       <c r="M41" s="4" t="s">
@@ -26827,16 +26873,16 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="C42" s="2">
         <v>783.27279999999996</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>765.73341344859818</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>733.71547689804527</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>730.98243670120416</v>
       </c>
       <c r="M42" s="4" t="s">
@@ -26907,7 +26953,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28086,13 +28132,13 @@
       <c r="F38">
         <v>661.88229640603311</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
@@ -28215,13 +28261,13 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L43" s="12" t="s">
+      <c r="L43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L44" s="4" t="s">
@@ -28310,7 +28356,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29455,13 +29501,13 @@
       <c r="J36">
         <v>2516.7070889100542</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -29614,13 +29660,13 @@
       <c r="F41">
         <v>811.97969712959537</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -29721,7 +29767,7 @@
   <dimension ref="B1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="B1" sqref="B1:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31789,8 +31835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32140,11 +32186,11 @@
       <c r="D28">
         <v>890.87120000000004</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -32203,11 +32249,11 @@
       <c r="D31">
         <v>847.20489999999995</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
